--- a/view/frequence.xlsx
+++ b/view/frequence.xlsx
@@ -4,22 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="整理" sheetId="3" r:id="rId1"/>
     <sheet name="各种概率" sheetId="1" r:id="rId2"/>
-    <sheet name="spr与最终pot比值" sheetId="2" r:id="rId3"/>
-    <sheet name="转牌河牌联动" sheetId="4" r:id="rId4"/>
-    <sheet name="转牌河牌联动_调整系数" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId3"/>
+    <sheet name="spr与最终pot比值" sheetId="2" r:id="rId4"/>
+    <sheet name="转牌河牌联动" sheetId="4" r:id="rId5"/>
+    <sheet name="转牌河牌联动_调整系数" sheetId="5" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="326">
   <si>
     <t>起手牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1215,6 +1216,78 @@
   </si>
   <si>
     <t>弃牌率与下注pot比率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre-r</t>
+  </si>
+  <si>
+    <t>pre-r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flop-r</t>
+  </si>
+  <si>
+    <t>flop-r</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>f-r_s</t>
+  </si>
+  <si>
+    <t>f-r_s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/3</t>
+  </si>
+  <si>
+    <t>1/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3/4</t>
+  </si>
+  <si>
+    <t>3/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/3</t>
+  </si>
+  <si>
+    <t>2/3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/2</t>
+  </si>
+  <si>
+    <t>1/2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1223,13 +1296,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
-    <numFmt numFmtId="180" formatCode="0.00_ "/>
-    <numFmt numFmtId="181" formatCode="0.0_ "/>
-    <numFmt numFmtId="182" formatCode="#\ ???/???"/>
-    <numFmt numFmtId="183" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="184" formatCode="0.00_ ;[Red]\-0.00\ "/>
+    <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="#\ ???/???"/>
+    <numFmt numFmtId="179" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="180" formatCode="0.00_ ;[Red]\-0.00\ "/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1329,6 +1402,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1350,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1376,26 +1458,28 @@
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="180" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="182" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="181" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1699,7 +1783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -7441,10 +7525,2814 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U54"/>
+  <dimension ref="A1:U106"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="M93" sqref="M93"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="11.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="12"/>
+    <col min="2" max="4" width="9.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9" style="12"/>
+    <col min="7" max="7" width="15.375" style="12" customWidth="1"/>
+    <col min="8" max="8" width="7.25" style="12" customWidth="1"/>
+    <col min="9" max="9" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2" style="12" customWidth="1"/>
+    <col min="13" max="13" width="7.25" style="12" customWidth="1"/>
+    <col min="14" max="14" width="6" style="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="4.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="1.875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="7.75" style="12" customWidth="1"/>
+    <col min="19" max="19" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="5.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21">
+      <c r="A1" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="J2" s="12">
+        <v>12</v>
+      </c>
+      <c r="O2" s="12">
+        <v>20</v>
+      </c>
+      <c r="T2" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I3" s="12">
+        <f>J2</f>
+        <v>12</v>
+      </c>
+      <c r="K3" s="12">
+        <f>I3</f>
+        <v>12</v>
+      </c>
+      <c r="M3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N3" s="12">
+        <f>O2</f>
+        <v>20</v>
+      </c>
+      <c r="P3" s="12">
+        <f>N3</f>
+        <v>20</v>
+      </c>
+      <c r="R3" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S3" s="12">
+        <f>T2</f>
+        <v>50</v>
+      </c>
+      <c r="U3" s="12">
+        <f>S3</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="12">
+        <f>J2+I3+K3</f>
+        <v>36</v>
+      </c>
+      <c r="O4" s="12">
+        <f>O2+N3+P3</f>
+        <v>60</v>
+      </c>
+      <c r="T4" s="12">
+        <f>T2+S3+U3</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I5" s="12">
+        <f>J4</f>
+        <v>36</v>
+      </c>
+      <c r="K5" s="12">
+        <f>I5</f>
+        <v>36</v>
+      </c>
+      <c r="M5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N5" s="12">
+        <f>O4</f>
+        <v>60</v>
+      </c>
+      <c r="P5" s="12">
+        <f>N5</f>
+        <v>60</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S5" s="12">
+        <f>T4</f>
+        <v>150</v>
+      </c>
+      <c r="U5" s="12">
+        <f>S5</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="J6" s="12">
+        <f>J4+I5+K5</f>
+        <v>108</v>
+      </c>
+      <c r="O6" s="12">
+        <f>O4+N5+P5</f>
+        <v>180</v>
+      </c>
+      <c r="T6" s="12">
+        <f>T4+S5+U5</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="12">
+        <f>J6</f>
+        <v>108</v>
+      </c>
+      <c r="K7" s="12">
+        <f>I7</f>
+        <v>108</v>
+      </c>
+      <c r="M7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N7" s="12">
+        <f>O6</f>
+        <v>180</v>
+      </c>
+      <c r="P7" s="12">
+        <f>N7</f>
+        <v>180</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S7" s="12">
+        <f>T6</f>
+        <v>450</v>
+      </c>
+      <c r="U7" s="12">
+        <f>S7</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="J8" s="12">
+        <f>J6+I7+K7</f>
+        <v>324</v>
+      </c>
+      <c r="O8" s="12">
+        <f>O6+N7+P7</f>
+        <v>540</v>
+      </c>
+      <c r="T8" s="12">
+        <f>T6+S7+U7</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="H9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I9" s="12">
+        <f>J8</f>
+        <v>324</v>
+      </c>
+      <c r="K9" s="12">
+        <f>I9</f>
+        <v>324</v>
+      </c>
+      <c r="M9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N9" s="12">
+        <f>O8</f>
+        <v>540</v>
+      </c>
+      <c r="P9" s="12">
+        <f>N9</f>
+        <v>540</v>
+      </c>
+      <c r="R9" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S9" s="12">
+        <f>T8</f>
+        <v>1350</v>
+      </c>
+      <c r="U9" s="12">
+        <f>S9</f>
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="H10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I10" s="12">
+        <f>J8-K7-K5</f>
+        <v>180</v>
+      </c>
+      <c r="J10" s="12">
+        <f>J8+I9-K3-K5-K7</f>
+        <v>492</v>
+      </c>
+      <c r="K10" s="12">
+        <f>J8+I9-K5-K7</f>
+        <v>504</v>
+      </c>
+      <c r="M10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N10" s="12">
+        <f>O8-P7-P5</f>
+        <v>300</v>
+      </c>
+      <c r="O10" s="12">
+        <f>O8+N9-P3-P5-P7</f>
+        <v>820</v>
+      </c>
+      <c r="P10" s="12">
+        <f>O8+N9-P5-P7</f>
+        <v>840</v>
+      </c>
+      <c r="R10" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S10" s="12">
+        <f>T8-U7-U5</f>
+        <v>750</v>
+      </c>
+      <c r="T10" s="12">
+        <f>T8+S9-U3-U5-U7</f>
+        <v>2050</v>
+      </c>
+      <c r="U10" s="12">
+        <f>T8+S9-U5-U7</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="H11" s="31" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P11" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S11" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T11" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U11" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="11" customFormat="1">
+      <c r="I12" s="11">
+        <f>I10/I5</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="11">
+        <f>J10/I3</f>
+        <v>41</v>
+      </c>
+      <c r="K12" s="11">
+        <f>K10/I5</f>
+        <v>14</v>
+      </c>
+      <c r="N12" s="11">
+        <f>N10/N5</f>
+        <v>5</v>
+      </c>
+      <c r="O12" s="11">
+        <f>O10/N3</f>
+        <v>41</v>
+      </c>
+      <c r="P12" s="11">
+        <f>P10/N5</f>
+        <v>14</v>
+      </c>
+      <c r="S12" s="11">
+        <f>S10/S5</f>
+        <v>5</v>
+      </c>
+      <c r="T12" s="11">
+        <f>T10/S3</f>
+        <v>41</v>
+      </c>
+      <c r="U12" s="11">
+        <f>U10/S5</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14" s="12">
+        <v>12</v>
+      </c>
+      <c r="O14" s="12">
+        <v>20</v>
+      </c>
+      <c r="T14" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I15" s="12">
+        <f>J14/2</f>
+        <v>6</v>
+      </c>
+      <c r="K15" s="12">
+        <f>I15</f>
+        <v>6</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N15" s="12">
+        <f>O14/2</f>
+        <v>10</v>
+      </c>
+      <c r="P15" s="12">
+        <f>N15</f>
+        <v>10</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S15" s="12">
+        <f>T14/2</f>
+        <v>25</v>
+      </c>
+      <c r="U15" s="12">
+        <f>S15</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="J16" s="12">
+        <f>J14+I15+K15</f>
+        <v>24</v>
+      </c>
+      <c r="O16" s="12">
+        <f>O14+N15+P15</f>
+        <v>40</v>
+      </c>
+      <c r="T16" s="12">
+        <f>T14+S15+U15</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="8:21">
+      <c r="H17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I17" s="12">
+        <f>J16/2</f>
+        <v>12</v>
+      </c>
+      <c r="K17" s="12">
+        <f>I17</f>
+        <v>12</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N17" s="12">
+        <f>O16/2</f>
+        <v>20</v>
+      </c>
+      <c r="P17" s="12">
+        <f>N17</f>
+        <v>20</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S17" s="12">
+        <f>T16/2</f>
+        <v>50</v>
+      </c>
+      <c r="U17" s="12">
+        <f>S17</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="8:21">
+      <c r="J18" s="12">
+        <f>J16+I17+K17</f>
+        <v>48</v>
+      </c>
+      <c r="O18" s="12">
+        <f>O16+N17+P17</f>
+        <v>80</v>
+      </c>
+      <c r="T18" s="12">
+        <f>T16+S17+U17</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="8:21">
+      <c r="H19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" s="12">
+        <f>J18/2</f>
+        <v>24</v>
+      </c>
+      <c r="K19" s="12">
+        <f>I19</f>
+        <v>24</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N19" s="12">
+        <f>O18/2</f>
+        <v>40</v>
+      </c>
+      <c r="P19" s="12">
+        <f>N19</f>
+        <v>40</v>
+      </c>
+      <c r="R19" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S19" s="12">
+        <f>T18/2</f>
+        <v>100</v>
+      </c>
+      <c r="U19" s="12">
+        <f>S19</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="8:21">
+      <c r="J20" s="12">
+        <f>J18+I19+K19</f>
+        <v>96</v>
+      </c>
+      <c r="O20" s="12">
+        <f>O18+N19+P19</f>
+        <v>160</v>
+      </c>
+      <c r="T20" s="12">
+        <f>T18+S19+U19</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="21" spans="8:21">
+      <c r="H21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="12">
+        <f>J20/2</f>
+        <v>48</v>
+      </c>
+      <c r="K21" s="12">
+        <f>I21</f>
+        <v>48</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N21" s="12">
+        <f>O20/2</f>
+        <v>80</v>
+      </c>
+      <c r="P21" s="12">
+        <f>N21</f>
+        <v>80</v>
+      </c>
+      <c r="R21" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S21" s="12">
+        <f>T20/2</f>
+        <v>200</v>
+      </c>
+      <c r="U21" s="12">
+        <f>S21</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21">
+      <c r="H22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22" s="12">
+        <f>J20-K19-K17</f>
+        <v>60</v>
+      </c>
+      <c r="J22" s="12">
+        <f>J20+I21-K15-K17-K19</f>
+        <v>102</v>
+      </c>
+      <c r="K22" s="12">
+        <f>J20+I21-K17-K19</f>
+        <v>108</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22" s="12">
+        <f>O20-P19-P17</f>
+        <v>100</v>
+      </c>
+      <c r="O22" s="12">
+        <f>O20+N21-P15-P17-P19</f>
+        <v>170</v>
+      </c>
+      <c r="P22" s="12">
+        <f>O20+N21-P17-P19</f>
+        <v>180</v>
+      </c>
+      <c r="R22" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22" s="12">
+        <f>T20-U19-U17</f>
+        <v>250</v>
+      </c>
+      <c r="T22" s="12">
+        <f>T20+S21-U15-U17-U19</f>
+        <v>425</v>
+      </c>
+      <c r="U22" s="12">
+        <f>T20+S21-U17-U19</f>
+        <v>450</v>
+      </c>
+    </row>
+    <row r="23" spans="8:21">
+      <c r="H23" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N23" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P23" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S23" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T23" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U23" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="8:21" s="11" customFormat="1">
+      <c r="I24" s="11">
+        <f>I22/I17</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="11">
+        <f>J22/I15</f>
+        <v>17</v>
+      </c>
+      <c r="K24" s="11">
+        <f>K22/I17</f>
+        <v>9</v>
+      </c>
+      <c r="N24" s="11">
+        <f>N22/N17</f>
+        <v>5</v>
+      </c>
+      <c r="O24" s="11">
+        <f>O22/N15</f>
+        <v>17</v>
+      </c>
+      <c r="P24" s="11">
+        <f>P22/N17</f>
+        <v>9</v>
+      </c>
+      <c r="S24" s="11">
+        <f>S22/S17</f>
+        <v>5</v>
+      </c>
+      <c r="T24" s="11">
+        <f>T22/S15</f>
+        <v>17</v>
+      </c>
+      <c r="U24" s="11">
+        <f>U22/S17</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="8:21">
+      <c r="H25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R25" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S25" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U25" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="8:21">
+      <c r="J26" s="12">
+        <v>12</v>
+      </c>
+      <c r="O26" s="12">
+        <v>20</v>
+      </c>
+      <c r="T26" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="8:21">
+      <c r="H27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I27" s="12">
+        <f>J26/4</f>
+        <v>3</v>
+      </c>
+      <c r="K27" s="12">
+        <f>I27</f>
+        <v>3</v>
+      </c>
+      <c r="M27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N27" s="12">
+        <f>O26/4</f>
+        <v>5</v>
+      </c>
+      <c r="P27" s="12">
+        <f>N27</f>
+        <v>5</v>
+      </c>
+      <c r="R27" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S27" s="12">
+        <f>T26/4</f>
+        <v>12.5</v>
+      </c>
+      <c r="U27" s="12">
+        <f>S27</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="28" spans="8:21">
+      <c r="J28" s="12">
+        <f>J26+I27+K27</f>
+        <v>18</v>
+      </c>
+      <c r="O28" s="12">
+        <f>O26+N27+P27</f>
+        <v>30</v>
+      </c>
+      <c r="T28" s="12">
+        <f>T26+S27+U27</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="8:21">
+      <c r="H29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" s="12">
+        <f>J28/4</f>
+        <v>4.5</v>
+      </c>
+      <c r="K29" s="12">
+        <f>I29</f>
+        <v>4.5</v>
+      </c>
+      <c r="M29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N29" s="12">
+        <f>O28/4</f>
+        <v>7.5</v>
+      </c>
+      <c r="P29" s="12">
+        <f>N29</f>
+        <v>7.5</v>
+      </c>
+      <c r="R29" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" s="12">
+        <f>T28/4</f>
+        <v>18.75</v>
+      </c>
+      <c r="U29" s="12">
+        <f>S29</f>
+        <v>18.75</v>
+      </c>
+    </row>
+    <row r="30" spans="8:21">
+      <c r="J30" s="12">
+        <f>J28+I29+K29</f>
+        <v>27</v>
+      </c>
+      <c r="O30" s="12">
+        <f>O28+N29+P29</f>
+        <v>45</v>
+      </c>
+      <c r="T30" s="12">
+        <f>T28+S29+U29</f>
+        <v>112.5</v>
+      </c>
+    </row>
+    <row r="31" spans="8:21">
+      <c r="H31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I31" s="12">
+        <f>J30/4</f>
+        <v>6.75</v>
+      </c>
+      <c r="K31" s="12">
+        <f>I31</f>
+        <v>6.75</v>
+      </c>
+      <c r="M31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N31" s="12">
+        <f>O30/4</f>
+        <v>11.25</v>
+      </c>
+      <c r="P31" s="12">
+        <f>N31</f>
+        <v>11.25</v>
+      </c>
+      <c r="R31" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S31" s="12">
+        <f>T30/4</f>
+        <v>28.125</v>
+      </c>
+      <c r="U31" s="12">
+        <f>S31</f>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="32" spans="8:21">
+      <c r="J32" s="12">
+        <f>J30+I31+K31</f>
+        <v>40.5</v>
+      </c>
+      <c r="O32" s="12">
+        <f>O30+N31+P31</f>
+        <v>67.5</v>
+      </c>
+      <c r="T32" s="12">
+        <f>T30+S31+U31</f>
+        <v>168.75</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21">
+      <c r="H33" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" s="12">
+        <f>J32/4</f>
+        <v>10.125</v>
+      </c>
+      <c r="K33" s="12">
+        <f>I33</f>
+        <v>10.125</v>
+      </c>
+      <c r="M33" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33" s="12">
+        <f>O32/4</f>
+        <v>16.875</v>
+      </c>
+      <c r="P33" s="12">
+        <f>N33</f>
+        <v>16.875</v>
+      </c>
+      <c r="R33" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S33" s="12">
+        <f>T32/4</f>
+        <v>42.1875</v>
+      </c>
+      <c r="U33" s="12">
+        <f>S33</f>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="34" spans="8:21">
+      <c r="H34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34" s="12">
+        <f>J32-K31-K29</f>
+        <v>29.25</v>
+      </c>
+      <c r="J34" s="12">
+        <f>J32+I33-K27-K29-K31</f>
+        <v>36.375</v>
+      </c>
+      <c r="K34" s="12">
+        <f>J32+I33-K29-K31</f>
+        <v>39.375</v>
+      </c>
+      <c r="M34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34" s="12">
+        <f>O32-P31-P29</f>
+        <v>48.75</v>
+      </c>
+      <c r="O34" s="12">
+        <f>O32+N33-P27-P29-P31</f>
+        <v>60.625</v>
+      </c>
+      <c r="P34" s="12">
+        <f>O32+N33-P29-P31</f>
+        <v>65.625</v>
+      </c>
+      <c r="R34" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S34" s="12">
+        <f>T32-U31-U29</f>
+        <v>121.875</v>
+      </c>
+      <c r="T34" s="12">
+        <f>T32+S33-U27-U29-U31</f>
+        <v>151.5625</v>
+      </c>
+      <c r="U34" s="12">
+        <f>T32+S33-U29-U31</f>
+        <v>164.0625</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21">
+      <c r="H35" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="I35" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N35" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P35" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S35" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T35" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U35" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="8:21" s="11" customFormat="1">
+      <c r="I36" s="11">
+        <f>I34/I29</f>
+        <v>6.5</v>
+      </c>
+      <c r="J36" s="11">
+        <f>J34/I27</f>
+        <v>12.125</v>
+      </c>
+      <c r="K36" s="11">
+        <f>K34/I29</f>
+        <v>8.75</v>
+      </c>
+      <c r="N36" s="11">
+        <f>N34/N29</f>
+        <v>6.5</v>
+      </c>
+      <c r="O36" s="11">
+        <f>O34/N27</f>
+        <v>12.125</v>
+      </c>
+      <c r="P36" s="11">
+        <f>P34/N29</f>
+        <v>8.75</v>
+      </c>
+      <c r="S36" s="11">
+        <f>S34/S29</f>
+        <v>6.5</v>
+      </c>
+      <c r="T36" s="11">
+        <f>T34/S27</f>
+        <v>12.125</v>
+      </c>
+      <c r="U36" s="11">
+        <f>U34/S29</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="37" spans="8:21">
+      <c r="H37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K37" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O37" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P37" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R37" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S37" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T37" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U37" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="8:21">
+      <c r="J38" s="12">
+        <v>12</v>
+      </c>
+      <c r="O38" s="12">
+        <v>20</v>
+      </c>
+      <c r="T38" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="8:21">
+      <c r="H39" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I39" s="12">
+        <f>J38/3*2</f>
+        <v>8</v>
+      </c>
+      <c r="K39" s="12">
+        <f>I39</f>
+        <v>8</v>
+      </c>
+      <c r="M39" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N39" s="12">
+        <f>O38/3*2</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P39" s="12">
+        <f>N39</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="R39" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S39" s="12">
+        <f>T38/3*2</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="U39" s="12">
+        <f>S39</f>
+        <v>33.333333333333336</v>
+      </c>
+    </row>
+    <row r="40" spans="8:21">
+      <c r="J40" s="12">
+        <f>J38+I39+K39</f>
+        <v>28</v>
+      </c>
+      <c r="O40" s="12">
+        <f>O38+N39+P39</f>
+        <v>46.666666666666671</v>
+      </c>
+      <c r="T40" s="12">
+        <f>T38+S39+U39</f>
+        <v>116.66666666666669</v>
+      </c>
+    </row>
+    <row r="41" spans="8:21">
+      <c r="H41" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I41" s="12">
+        <f>J40/3*2</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="K41" s="12">
+        <f>I41</f>
+        <v>18.666666666666668</v>
+      </c>
+      <c r="M41" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N41" s="12">
+        <f>O40/3*2</f>
+        <v>31.111111111111114</v>
+      </c>
+      <c r="P41" s="12">
+        <f>N41</f>
+        <v>31.111111111111114</v>
+      </c>
+      <c r="R41" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S41" s="12">
+        <f>T40/3*2</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="U41" s="12">
+        <f>S41</f>
+        <v>77.777777777777786</v>
+      </c>
+    </row>
+    <row r="42" spans="8:21">
+      <c r="J42" s="12">
+        <f>J40+I41+K41</f>
+        <v>65.333333333333343</v>
+      </c>
+      <c r="O42" s="12">
+        <f>O40+N41+P41</f>
+        <v>108.8888888888889</v>
+      </c>
+      <c r="T42" s="12">
+        <f>T40+S41+U41</f>
+        <v>272.22222222222223</v>
+      </c>
+    </row>
+    <row r="43" spans="8:21">
+      <c r="H43" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I43" s="12">
+        <f>J42/3*2</f>
+        <v>43.555555555555564</v>
+      </c>
+      <c r="K43" s="12">
+        <f>I43</f>
+        <v>43.555555555555564</v>
+      </c>
+      <c r="M43" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N43" s="12">
+        <f>O42/3*2</f>
+        <v>72.592592592592595</v>
+      </c>
+      <c r="P43" s="12">
+        <f>N43</f>
+        <v>72.592592592592595</v>
+      </c>
+      <c r="R43" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S43" s="12">
+        <f>T42/3*2</f>
+        <v>181.4814814814815</v>
+      </c>
+      <c r="U43" s="12">
+        <f>S43</f>
+        <v>181.4814814814815</v>
+      </c>
+    </row>
+    <row r="44" spans="8:21">
+      <c r="J44" s="12">
+        <f>J42+I43+K43</f>
+        <v>152.44444444444449</v>
+      </c>
+      <c r="O44" s="12">
+        <f>O42+N43+P43</f>
+        <v>254.07407407407408</v>
+      </c>
+      <c r="T44" s="12">
+        <f>T42+S43+U43</f>
+        <v>635.18518518518522</v>
+      </c>
+    </row>
+    <row r="45" spans="8:21">
+      <c r="H45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45" s="12">
+        <f>J44/3*2</f>
+        <v>101.62962962962966</v>
+      </c>
+      <c r="K45" s="12">
+        <f>I45</f>
+        <v>101.62962962962966</v>
+      </c>
+      <c r="M45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45" s="12">
+        <f>O44/3*2</f>
+        <v>169.38271604938271</v>
+      </c>
+      <c r="P45" s="12">
+        <f>N45</f>
+        <v>169.38271604938271</v>
+      </c>
+      <c r="R45" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S45" s="12">
+        <f>T44/3*2</f>
+        <v>423.45679012345681</v>
+      </c>
+      <c r="U45" s="12">
+        <f>S45</f>
+        <v>423.45679012345681</v>
+      </c>
+    </row>
+    <row r="46" spans="8:21">
+      <c r="H46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I46" s="12">
+        <f>J44-K43-K41</f>
+        <v>90.222222222222243</v>
+      </c>
+      <c r="J46" s="12">
+        <f>J44+I45-K39-K41-K43</f>
+        <v>183.8518518518519</v>
+      </c>
+      <c r="K46" s="12">
+        <f>J44+I45-K41-K43</f>
+        <v>191.8518518518519</v>
+      </c>
+      <c r="M46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N46" s="12">
+        <f>O44-P43-P41</f>
+        <v>150.37037037037035</v>
+      </c>
+      <c r="O46" s="12">
+        <f>O44+N45-P39-P41-P43</f>
+        <v>306.41975308641975</v>
+      </c>
+      <c r="P46" s="12">
+        <f>O44+N45-P41-P43</f>
+        <v>319.75308641975312</v>
+      </c>
+      <c r="R46" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S46" s="12">
+        <f>T44-U43-U41</f>
+        <v>375.92592592592592</v>
+      </c>
+      <c r="T46" s="12">
+        <f>T44+S45-U39-U41-U43</f>
+        <v>766.04938271604942</v>
+      </c>
+      <c r="U46" s="12">
+        <f>T44+S45-U41-U43</f>
+        <v>799.38271604938268</v>
+      </c>
+    </row>
+    <row r="47" spans="8:21">
+      <c r="H47" s="31" t="s">
+        <v>319</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N47" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P47" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S47" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T47" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U47" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="8:21" s="11" customFormat="1">
+      <c r="I48" s="11">
+        <f>I46/I41</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="J48" s="11">
+        <f>J46/I39</f>
+        <v>22.981481481481488</v>
+      </c>
+      <c r="K48" s="11">
+        <f>K46/I41</f>
+        <v>10.27777777777778</v>
+      </c>
+      <c r="N48" s="11">
+        <f>N46/N41</f>
+        <v>4.8333333333333321</v>
+      </c>
+      <c r="O48" s="11">
+        <f>O46/N39</f>
+        <v>22.981481481481481</v>
+      </c>
+      <c r="P48" s="11">
+        <f>P46/N41</f>
+        <v>10.277777777777779</v>
+      </c>
+      <c r="S48" s="11">
+        <f>S46/S41</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="T48" s="11">
+        <f>T46/S39</f>
+        <v>22.981481481481481</v>
+      </c>
+      <c r="U48" s="11">
+        <f>U46/S41</f>
+        <v>10.277777777777777</v>
+      </c>
+    </row>
+    <row r="49" spans="8:21">
+      <c r="H49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R49" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S49" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T49" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U49" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="8:21">
+      <c r="J50" s="12">
+        <v>12</v>
+      </c>
+      <c r="O50" s="12">
+        <v>20</v>
+      </c>
+      <c r="T50" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="8:21">
+      <c r="H51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I51" s="12">
+        <f>J50/4*3</f>
+        <v>9</v>
+      </c>
+      <c r="K51" s="12">
+        <f>I51</f>
+        <v>9</v>
+      </c>
+      <c r="M51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N51" s="12">
+        <f>O50/4*3</f>
+        <v>15</v>
+      </c>
+      <c r="P51" s="12">
+        <f>N51</f>
+        <v>15</v>
+      </c>
+      <c r="R51" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S51" s="12">
+        <f>T50/4*3</f>
+        <v>37.5</v>
+      </c>
+      <c r="U51" s="12">
+        <f>S51</f>
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="52" spans="8:21">
+      <c r="J52" s="12">
+        <f>J50+I51+K51</f>
+        <v>30</v>
+      </c>
+      <c r="O52" s="12">
+        <f>O50+N51+P51</f>
+        <v>50</v>
+      </c>
+      <c r="T52" s="12">
+        <f>T50+S51+U51</f>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="53" spans="8:21">
+      <c r="H53" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I53" s="12">
+        <f>J52/4*3</f>
+        <v>22.5</v>
+      </c>
+      <c r="K53" s="12">
+        <f>I53</f>
+        <v>22.5</v>
+      </c>
+      <c r="M53" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N53" s="12">
+        <f>O52/4*3</f>
+        <v>37.5</v>
+      </c>
+      <c r="P53" s="12">
+        <f>N53</f>
+        <v>37.5</v>
+      </c>
+      <c r="R53" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S53" s="12">
+        <f>T52/4*3</f>
+        <v>93.75</v>
+      </c>
+      <c r="U53" s="12">
+        <f>S53</f>
+        <v>93.75</v>
+      </c>
+    </row>
+    <row r="54" spans="8:21">
+      <c r="J54" s="12">
+        <f>J52+I53+K53</f>
+        <v>75</v>
+      </c>
+      <c r="O54" s="12">
+        <f>O52+N53+P53</f>
+        <v>125</v>
+      </c>
+      <c r="T54" s="12">
+        <f>T52+S53+U53</f>
+        <v>312.5</v>
+      </c>
+    </row>
+    <row r="55" spans="8:21">
+      <c r="H55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55" s="12">
+        <f>J54/4*3</f>
+        <v>56.25</v>
+      </c>
+      <c r="K55" s="12">
+        <f>I55</f>
+        <v>56.25</v>
+      </c>
+      <c r="M55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N55" s="12">
+        <f>O54/4*3</f>
+        <v>93.75</v>
+      </c>
+      <c r="P55" s="12">
+        <f>N55</f>
+        <v>93.75</v>
+      </c>
+      <c r="R55" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S55" s="12">
+        <f>T54/4*3</f>
+        <v>234.375</v>
+      </c>
+      <c r="U55" s="12">
+        <f>S55</f>
+        <v>234.375</v>
+      </c>
+    </row>
+    <row r="56" spans="8:21">
+      <c r="J56" s="12">
+        <f>J54+I55+K55</f>
+        <v>187.5</v>
+      </c>
+      <c r="O56" s="12">
+        <f>O54+N55+P55</f>
+        <v>312.5</v>
+      </c>
+      <c r="T56" s="12">
+        <f>T54+S55+U55</f>
+        <v>781.25</v>
+      </c>
+    </row>
+    <row r="57" spans="8:21">
+      <c r="H57" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57" s="12">
+        <f>J56/4*3</f>
+        <v>140.625</v>
+      </c>
+      <c r="K57" s="12">
+        <f>I57</f>
+        <v>140.625</v>
+      </c>
+      <c r="M57" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57" s="12">
+        <f>O56/4*3</f>
+        <v>234.375</v>
+      </c>
+      <c r="P57" s="12">
+        <f>N57</f>
+        <v>234.375</v>
+      </c>
+      <c r="R57" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S57" s="12">
+        <f>T56/4*3</f>
+        <v>585.9375</v>
+      </c>
+      <c r="U57" s="12">
+        <f>S57</f>
+        <v>585.9375</v>
+      </c>
+    </row>
+    <row r="58" spans="8:21">
+      <c r="H58" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58" s="12">
+        <f>J56-K55-K53</f>
+        <v>108.75</v>
+      </c>
+      <c r="J58" s="12">
+        <f>J56+I57-K51-K53-K55</f>
+        <v>240.375</v>
+      </c>
+      <c r="K58" s="12">
+        <f>J56+I57-K53-K55</f>
+        <v>249.375</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N58" s="12">
+        <f>O56-P55-P53</f>
+        <v>181.25</v>
+      </c>
+      <c r="O58" s="12">
+        <f>O56+N57-P51-P53-P55</f>
+        <v>400.625</v>
+      </c>
+      <c r="P58" s="12">
+        <f>O56+N57-P53-P55</f>
+        <v>415.625</v>
+      </c>
+      <c r="R58" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S58" s="12">
+        <f>T56-U55-U53</f>
+        <v>453.125</v>
+      </c>
+      <c r="T58" s="12">
+        <f>T56+S57-U51-U53-U55</f>
+        <v>1001.5625</v>
+      </c>
+      <c r="U58" s="12">
+        <f>T56+S57-U53-U55</f>
+        <v>1039.0625</v>
+      </c>
+    </row>
+    <row r="59" spans="8:21">
+      <c r="H59" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="I59" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J59" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N59" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O59" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P59" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S59" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T59" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U59" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="8:21" s="11" customFormat="1">
+      <c r="I60" s="11">
+        <f>I58/I53</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="J60" s="11">
+        <f>J58/I51</f>
+        <v>26.708333333333332</v>
+      </c>
+      <c r="K60" s="11">
+        <f>K58/I53</f>
+        <v>11.083333333333334</v>
+      </c>
+      <c r="N60" s="11">
+        <f>N58/N53</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="O60" s="11">
+        <f>O58/N51</f>
+        <v>26.708333333333332</v>
+      </c>
+      <c r="P60" s="11">
+        <f>P58/N53</f>
+        <v>11.083333333333334</v>
+      </c>
+      <c r="S60" s="11">
+        <f>S58/S53</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="T60" s="11">
+        <f>T58/S51</f>
+        <v>26.708333333333332</v>
+      </c>
+      <c r="U60" s="11">
+        <f>U58/S53</f>
+        <v>11.083333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="8:21">
+      <c r="H61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N61" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P61" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R61" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S61" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T61" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U61" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="8:21">
+      <c r="J62" s="12">
+        <v>12</v>
+      </c>
+      <c r="O62" s="12">
+        <v>20</v>
+      </c>
+      <c r="T62" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="8:21">
+      <c r="H63" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63" s="12">
+        <f>J62/3</f>
+        <v>4</v>
+      </c>
+      <c r="K63" s="12">
+        <f>I63</f>
+        <v>4</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N63" s="12">
+        <f>O62/3</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P63" s="12">
+        <f>N63</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R63" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S63" s="12">
+        <f>T62/3</f>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="U63" s="12">
+        <f>S63</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="64" spans="8:21">
+      <c r="J64" s="12">
+        <f>J62+I63+K63</f>
+        <v>20</v>
+      </c>
+      <c r="O64" s="12">
+        <f>O62+N63+P63</f>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="T64" s="12">
+        <f>T62+S63+U63</f>
+        <v>83.333333333333343</v>
+      </c>
+    </row>
+    <row r="65" spans="8:21">
+      <c r="H65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65" s="12">
+        <f>J64/3*2</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K65" s="12">
+        <f>I65</f>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N65" s="12">
+        <f>O64/3*2</f>
+        <v>22.222222222222225</v>
+      </c>
+      <c r="P65" s="12">
+        <f>N65</f>
+        <v>22.222222222222225</v>
+      </c>
+      <c r="R65" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S65" s="12">
+        <f>T64/3*2</f>
+        <v>55.555555555555564</v>
+      </c>
+      <c r="U65" s="12">
+        <f>S65</f>
+        <v>55.555555555555564</v>
+      </c>
+    </row>
+    <row r="66" spans="8:21">
+      <c r="J66" s="12">
+        <f>J64+I65+K65</f>
+        <v>46.666666666666671</v>
+      </c>
+      <c r="O66" s="12">
+        <f>O64+N65+P65</f>
+        <v>77.777777777777786</v>
+      </c>
+      <c r="T66" s="12">
+        <f>T64+S65+U65</f>
+        <v>194.44444444444449</v>
+      </c>
+    </row>
+    <row r="67" spans="8:21">
+      <c r="H67" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="12">
+        <f>J66/3*2</f>
+        <v>31.111111111111114</v>
+      </c>
+      <c r="K67" s="12">
+        <f>I67</f>
+        <v>31.111111111111114</v>
+      </c>
+      <c r="M67" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N67" s="12">
+        <f>O66/3*2</f>
+        <v>51.851851851851855</v>
+      </c>
+      <c r="P67" s="12">
+        <f>N67</f>
+        <v>51.851851851851855</v>
+      </c>
+      <c r="R67" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S67" s="12">
+        <f>T66/3*2</f>
+        <v>129.62962962962965</v>
+      </c>
+      <c r="U67" s="12">
+        <f>S67</f>
+        <v>129.62962962962965</v>
+      </c>
+    </row>
+    <row r="68" spans="8:21">
+      <c r="J68" s="12">
+        <f>J66+I67+K67</f>
+        <v>108.8888888888889</v>
+      </c>
+      <c r="O68" s="12">
+        <f>O66+N67+P67</f>
+        <v>181.4814814814815</v>
+      </c>
+      <c r="T68" s="12">
+        <f>T66+S67+U67</f>
+        <v>453.70370370370381</v>
+      </c>
+    </row>
+    <row r="69" spans="8:21">
+      <c r="H69" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I69" s="12">
+        <f>J68/3*2</f>
+        <v>72.592592592592595</v>
+      </c>
+      <c r="K69" s="12">
+        <f>I69</f>
+        <v>72.592592592592595</v>
+      </c>
+      <c r="M69" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N69" s="12">
+        <f>O68/3*2</f>
+        <v>120.98765432098766</v>
+      </c>
+      <c r="P69" s="12">
+        <f>N69</f>
+        <v>120.98765432098766</v>
+      </c>
+      <c r="R69" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S69" s="12">
+        <f>T68/3*2</f>
+        <v>302.46913580246922</v>
+      </c>
+      <c r="U69" s="12">
+        <f>S69</f>
+        <v>302.46913580246922</v>
+      </c>
+    </row>
+    <row r="70" spans="8:21">
+      <c r="H70" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I70" s="12">
+        <f>J68-K67-K65</f>
+        <v>64.444444444444457</v>
+      </c>
+      <c r="J70" s="12">
+        <f>J68+I69-K63-K65-K67</f>
+        <v>133.03703703703704</v>
+      </c>
+      <c r="K70" s="12">
+        <f>J68+I69-K65-K67</f>
+        <v>137.03703703703704</v>
+      </c>
+      <c r="M70" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N70" s="12">
+        <f>O68-P67-P65</f>
+        <v>107.40740740740742</v>
+      </c>
+      <c r="O70" s="12">
+        <f>O68+N69-P63-P65-P67</f>
+        <v>221.72839506172841</v>
+      </c>
+      <c r="P70" s="12">
+        <f>O68+N69-P65-P67</f>
+        <v>228.39506172839509</v>
+      </c>
+      <c r="R70" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S70" s="12">
+        <f>T68-U67-U65</f>
+        <v>268.51851851851859</v>
+      </c>
+      <c r="T70" s="12">
+        <f>T68+S69-U63-U65-U67</f>
+        <v>554.32098765432113</v>
+      </c>
+      <c r="U70" s="12">
+        <f>T68+S69-U65-U67</f>
+        <v>570.98765432098776</v>
+      </c>
+    </row>
+    <row r="71" spans="8:21">
+      <c r="H71" s="18" t="s">
+        <v>315</v>
+      </c>
+      <c r="I71" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J71" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O71" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P71" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S71" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T71" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U71" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="8:21">
+      <c r="H72" s="11"/>
+      <c r="I72" s="11">
+        <f>I70/I65</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="J72" s="11">
+        <f>J70/I63</f>
+        <v>33.25925925925926</v>
+      </c>
+      <c r="K72" s="11">
+        <f>K70/I65</f>
+        <v>10.277777777777777</v>
+      </c>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11">
+        <f>N70/N65</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="O72" s="11">
+        <f>O70/N63</f>
+        <v>33.25925925925926</v>
+      </c>
+      <c r="P72" s="11">
+        <f>P70/N65</f>
+        <v>10.277777777777779</v>
+      </c>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11">
+        <f>S70/S65</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="T72" s="11">
+        <f>T70/S63</f>
+        <v>33.259259259259267</v>
+      </c>
+      <c r="U72" s="11">
+        <f>U70/S65</f>
+        <v>10.277777777777779</v>
+      </c>
+    </row>
+    <row r="73" spans="8:21">
+      <c r="H73" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="I73" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="J73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="O73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="P73" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="R73" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="S73" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="T73" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U73" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="8:21">
+      <c r="J74" s="12">
+        <v>12</v>
+      </c>
+      <c r="O74" s="12">
+        <v>20</v>
+      </c>
+      <c r="T74" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="8:21">
+      <c r="H75" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="I75" s="12">
+        <f>J74*2</f>
+        <v>24</v>
+      </c>
+      <c r="K75" s="12">
+        <f>I75</f>
+        <v>24</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="N75" s="12">
+        <f>O74*2</f>
+        <v>40</v>
+      </c>
+      <c r="P75" s="12">
+        <f>N75</f>
+        <v>40</v>
+      </c>
+      <c r="R75" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="S75" s="12">
+        <f>T74*2</f>
+        <v>100</v>
+      </c>
+      <c r="U75" s="12">
+        <f>S75</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="8:21">
+      <c r="J76" s="12">
+        <f>J74+I75+K75</f>
+        <v>60</v>
+      </c>
+      <c r="O76" s="12">
+        <f>O74+N75+P75</f>
+        <v>100</v>
+      </c>
+      <c r="T76" s="12">
+        <f>T74+S75+U75</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="8:21">
+      <c r="H77" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="I77" s="12">
+        <f>J76/3*2</f>
+        <v>40</v>
+      </c>
+      <c r="K77" s="12">
+        <f>I77</f>
+        <v>40</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="N77" s="12">
+        <f>O76/3*2</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="P77" s="12">
+        <f>N77</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="R77" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="S77" s="12">
+        <f>T76/3*2</f>
+        <v>166.66666666666666</v>
+      </c>
+      <c r="U77" s="12">
+        <f>S77</f>
+        <v>166.66666666666666</v>
+      </c>
+    </row>
+    <row r="78" spans="8:21">
+      <c r="J78" s="12">
+        <f>J76+I77+K77</f>
+        <v>140</v>
+      </c>
+      <c r="O78" s="12">
+        <f>O76+N77+P77</f>
+        <v>233.33333333333337</v>
+      </c>
+      <c r="T78" s="12">
+        <f>T76+S77+U77</f>
+        <v>583.33333333333326</v>
+      </c>
+    </row>
+    <row r="79" spans="8:21">
+      <c r="H79" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="I79" s="12">
+        <f>J78/3*2</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="K79" s="12">
+        <f>I79</f>
+        <v>93.333333333333329</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="N79" s="12">
+        <f>O78/3*2</f>
+        <v>155.55555555555557</v>
+      </c>
+      <c r="P79" s="12">
+        <f>N79</f>
+        <v>155.55555555555557</v>
+      </c>
+      <c r="R79" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="S79" s="12">
+        <f>T78/3*2</f>
+        <v>388.88888888888886</v>
+      </c>
+      <c r="U79" s="12">
+        <f>S79</f>
+        <v>388.88888888888886</v>
+      </c>
+    </row>
+    <row r="80" spans="8:21">
+      <c r="J80" s="12">
+        <f>J78+I79+K79</f>
+        <v>326.66666666666663</v>
+      </c>
+      <c r="O80" s="12">
+        <f>O78+N79+P79</f>
+        <v>544.44444444444446</v>
+      </c>
+      <c r="T80" s="12">
+        <f>T78+S79+U79</f>
+        <v>1361.1111111111111</v>
+      </c>
+    </row>
+    <row r="81" spans="8:21">
+      <c r="H81" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="I81" s="12">
+        <f>J80/3*2</f>
+        <v>217.77777777777774</v>
+      </c>
+      <c r="K81" s="12">
+        <f>I81</f>
+        <v>217.77777777777774</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="N81" s="12">
+        <f>O80/3*2</f>
+        <v>362.96296296296299</v>
+      </c>
+      <c r="P81" s="12">
+        <f>N81</f>
+        <v>362.96296296296299</v>
+      </c>
+      <c r="R81" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="S81" s="12">
+        <f>T80/3*2</f>
+        <v>907.40740740740739</v>
+      </c>
+      <c r="U81" s="12">
+        <f>S81</f>
+        <v>907.40740740740739</v>
+      </c>
+    </row>
+    <row r="82" spans="8:21">
+      <c r="H82" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="I82" s="12">
+        <f>J80-K79-K77</f>
+        <v>193.33333333333331</v>
+      </c>
+      <c r="J82" s="12">
+        <f>J80+I81-K75-K77-K79</f>
+        <v>387.11111111111103</v>
+      </c>
+      <c r="K82" s="12">
+        <f>J80+I81-K77-K79</f>
+        <v>411.11111111111103</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="N82" s="12">
+        <f>O80-P79-P77</f>
+        <v>322.22222222222223</v>
+      </c>
+      <c r="O82" s="12">
+        <f>O80+N81-P75-P77-P79</f>
+        <v>645.18518518518522</v>
+      </c>
+      <c r="P82" s="12">
+        <f>O80+N81-P77-P79</f>
+        <v>685.18518518518522</v>
+      </c>
+      <c r="R82" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S82" s="12">
+        <f>T80-U79-U77</f>
+        <v>805.55555555555554</v>
+      </c>
+      <c r="T82" s="12">
+        <f>T80+S81-U75-U77-U79</f>
+        <v>1612.9629629629626</v>
+      </c>
+      <c r="U82" s="12">
+        <f>T80+S81-U77-U79</f>
+        <v>1712.9629629629628</v>
+      </c>
+    </row>
+    <row r="83" spans="8:21">
+      <c r="H83" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="I83" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="J83" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="K83" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>311</v>
+      </c>
+      <c r="S83" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="T83" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="U83" s="12" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="84" spans="8:21">
+      <c r="H84" s="11">
+        <v>2</v>
+      </c>
+      <c r="I84" s="11">
+        <f>I82/I77</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="J84" s="11">
+        <f>J82/I75</f>
+        <v>16.129629629629626</v>
+      </c>
+      <c r="K84" s="11">
+        <f>K82/I77</f>
+        <v>10.277777777777775</v>
+      </c>
+      <c r="L84" s="11"/>
+      <c r="M84" s="11"/>
+      <c r="N84" s="11">
+        <f>N82/N77</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="O84" s="11">
+        <f>O82/N75</f>
+        <v>16.12962962962963</v>
+      </c>
+      <c r="P84" s="11">
+        <f>P82/N77</f>
+        <v>10.277777777777777</v>
+      </c>
+      <c r="Q84" s="11"/>
+      <c r="R84" s="11"/>
+      <c r="S84" s="11">
+        <f>S82/S77</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="T84" s="11">
+        <f>T82/S75</f>
+        <v>16.129629629629626</v>
+      </c>
+      <c r="U84" s="11">
+        <f>U82/S77</f>
+        <v>10.277777777777777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
+      <c r="A99" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="B99" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="C99" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D99" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="E99" s="20"/>
+      <c r="F99" s="20"/>
+      <c r="G99" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="H99" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="I99" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="J99" s="20"/>
+      <c r="K99" s="20"/>
+      <c r="L99" s="20" t="s">
+        <v>308</v>
+      </c>
+      <c r="M99" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="N99" s="20" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
+      <c r="A100" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="B100" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="C100" s="20">
+        <v>12.125</v>
+      </c>
+      <c r="D100" s="20">
+        <v>8.75</v>
+      </c>
+      <c r="E100" s="20"/>
+      <c r="F100" s="20"/>
+      <c r="G100" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="H100" s="20">
+        <v>12.125</v>
+      </c>
+      <c r="I100" s="20">
+        <v>8.75</v>
+      </c>
+      <c r="J100" s="20"/>
+      <c r="K100" s="20"/>
+      <c r="L100" s="20">
+        <v>6.5</v>
+      </c>
+      <c r="M100" s="20">
+        <v>12.125</v>
+      </c>
+      <c r="N100" s="20">
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
+      <c r="A101" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="B101" s="24">
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="C101" s="24">
+        <v>33.25925925925926</v>
+      </c>
+      <c r="D101" s="24">
+        <v>10.277777777777777</v>
+      </c>
+      <c r="E101" s="20"/>
+      <c r="F101" s="20"/>
+      <c r="G101" s="20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="H101" s="20">
+        <v>33.25925925925926</v>
+      </c>
+      <c r="I101" s="20">
+        <v>10.277777777777779</v>
+      </c>
+      <c r="J101" s="20"/>
+      <c r="K101" s="20"/>
+      <c r="L101" s="20">
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="M101" s="20">
+        <v>33.259259259259267</v>
+      </c>
+      <c r="N101" s="20">
+        <v>10.277777777777779</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
+      <c r="A102" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="B102" s="20">
+        <v>5</v>
+      </c>
+      <c r="C102" s="20">
+        <v>17</v>
+      </c>
+      <c r="D102" s="20">
+        <v>9</v>
+      </c>
+      <c r="E102" s="20"/>
+      <c r="F102" s="20"/>
+      <c r="G102" s="20">
+        <v>5</v>
+      </c>
+      <c r="H102" s="20">
+        <v>17</v>
+      </c>
+      <c r="I102" s="20">
+        <v>9</v>
+      </c>
+      <c r="J102" s="20"/>
+      <c r="K102" s="20"/>
+      <c r="L102" s="20">
+        <v>5</v>
+      </c>
+      <c r="M102" s="20">
+        <v>17</v>
+      </c>
+      <c r="N102" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
+      <c r="A103" s="18" t="s">
+        <v>318</v>
+      </c>
+      <c r="B103" s="24">
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="C103" s="24">
+        <v>22.981481481481488</v>
+      </c>
+      <c r="D103" s="24">
+        <v>10.27777777777778</v>
+      </c>
+      <c r="E103" s="20"/>
+      <c r="F103" s="20"/>
+      <c r="G103" s="20">
+        <v>4.8333333333333321</v>
+      </c>
+      <c r="H103" s="20">
+        <v>22.981481481481481</v>
+      </c>
+      <c r="I103" s="20">
+        <v>10.277777777777779</v>
+      </c>
+      <c r="J103" s="20"/>
+      <c r="K103" s="20"/>
+      <c r="L103" s="20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="M103" s="20">
+        <v>22.981481481481481</v>
+      </c>
+      <c r="N103" s="20">
+        <v>10.277777777777777</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
+      <c r="A104" s="31" t="s">
+        <v>316</v>
+      </c>
+      <c r="B104" s="20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C104" s="20">
+        <v>26.708333333333332</v>
+      </c>
+      <c r="D104" s="20">
+        <v>11.083333333333334</v>
+      </c>
+      <c r="E104" s="20"/>
+      <c r="F104" s="20"/>
+      <c r="G104" s="20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="H104" s="20">
+        <v>26.708333333333332</v>
+      </c>
+      <c r="I104" s="20">
+        <v>11.083333333333334</v>
+      </c>
+      <c r="J104" s="20"/>
+      <c r="K104" s="20"/>
+      <c r="L104" s="20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="M104" s="20">
+        <v>26.708333333333332</v>
+      </c>
+      <c r="N104" s="20">
+        <v>11.083333333333334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
+      <c r="A105" s="31" t="s">
+        <v>312</v>
+      </c>
+      <c r="B105" s="20">
+        <v>5</v>
+      </c>
+      <c r="C105" s="20">
+        <v>41</v>
+      </c>
+      <c r="D105" s="20">
+        <v>14</v>
+      </c>
+      <c r="E105" s="20"/>
+      <c r="F105" s="20"/>
+      <c r="G105" s="20">
+        <v>5</v>
+      </c>
+      <c r="H105" s="20">
+        <v>41</v>
+      </c>
+      <c r="I105" s="20">
+        <v>14</v>
+      </c>
+      <c r="J105" s="20"/>
+      <c r="K105" s="20"/>
+      <c r="L105" s="20">
+        <v>5</v>
+      </c>
+      <c r="M105" s="20">
+        <v>41</v>
+      </c>
+      <c r="N105" s="20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
+      <c r="A106" s="18" t="s">
+        <v>325</v>
+      </c>
+      <c r="B106" s="24">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="C106" s="24">
+        <v>16.129629629629626</v>
+      </c>
+      <c r="D106" s="24">
+        <v>10.277777777777775</v>
+      </c>
+      <c r="E106" s="20"/>
+      <c r="F106" s="20"/>
+      <c r="G106" s="20">
+        <v>4.833333333333333</v>
+      </c>
+      <c r="H106" s="20">
+        <v>16.12962962962963</v>
+      </c>
+      <c r="I106" s="20">
+        <v>10.277777777777777</v>
+      </c>
+      <c r="J106" s="20"/>
+      <c r="K106" s="20"/>
+      <c r="L106" s="20">
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="M106" s="20">
+        <v>16.129629629629626</v>
+      </c>
+      <c r="N106" s="20">
+        <v>10.277777777777777</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7549,11 +10437,11 @@
         <v>146</v>
       </c>
       <c r="S3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="U3">
         <f>S3</f>
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -7570,7 +10458,7 @@
       </c>
       <c r="T4">
         <f>T2+S3+U3</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -7604,11 +10492,11 @@
       </c>
       <c r="S5">
         <f>T4</f>
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="U5">
         <f>S5</f>
-        <v>11</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -7625,7 +10513,7 @@
       </c>
       <c r="T6">
         <f>T4+S5+U5</f>
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -7659,11 +10547,11 @@
       </c>
       <c r="S7">
         <f>T6</f>
-        <v>33</v>
+        <v>81</v>
       </c>
       <c r="U7">
         <f>S7</f>
-        <v>33</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -7677,7 +10565,7 @@
       </c>
       <c r="T8">
         <f>T6+S7+U7</f>
-        <v>99</v>
+        <v>243</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -7708,1059 +10596,1864 @@
       </c>
       <c r="S9">
         <f>T8</f>
-        <v>99</v>
+        <v>243</v>
       </c>
       <c r="U9">
         <f>S9</f>
-        <v>99</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:21">
       <c r="H10" t="s">
         <v>150</v>
       </c>
+      <c r="I10">
+        <f>J8-K7-K5</f>
+        <v>10</v>
+      </c>
       <c r="J10">
-        <f>J8+I9+K9</f>
-        <v>54</v>
+        <f>J8+I9-K3-K5-K7</f>
+        <v>27</v>
+      </c>
+      <c r="K10">
+        <f>J8+I9-K5-K7</f>
+        <v>28</v>
       </c>
       <c r="M10" t="s">
         <v>150</v>
       </c>
+      <c r="N10">
+        <f>O8-P7-P5</f>
+        <v>15</v>
+      </c>
       <c r="O10">
-        <f>O8+N9+P9</f>
-        <v>81</v>
+        <f>O8+N9-P3-P5-P7</f>
+        <v>41</v>
+      </c>
+      <c r="P10">
+        <f>O8+N9-P5-P7</f>
+        <v>42</v>
       </c>
       <c r="R10" t="s">
         <v>150</v>
       </c>
+      <c r="S10">
+        <f>T8-U7-U5</f>
+        <v>135</v>
+      </c>
       <c r="T10">
-        <f>T8+S9+U9</f>
-        <v>297</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>157</v>
-      </c>
-      <c r="H12" t="s">
-        <v>145</v>
-      </c>
-      <c r="I12" t="s">
-        <v>143</v>
-      </c>
-      <c r="J12" t="s">
-        <v>142</v>
-      </c>
-      <c r="K12" t="s">
-        <v>144</v>
-      </c>
-      <c r="M12" t="s">
-        <v>145</v>
-      </c>
-      <c r="N12" t="s">
-        <v>143</v>
-      </c>
-      <c r="O12" t="s">
-        <v>142</v>
-      </c>
-      <c r="P12" t="s">
-        <v>144</v>
-      </c>
-      <c r="R12" t="s">
-        <v>145</v>
-      </c>
-      <c r="S12" t="s">
-        <v>143</v>
-      </c>
-      <c r="T12" t="s">
-        <v>142</v>
-      </c>
-      <c r="U12" t="s">
-        <v>144</v>
+        <f>T8+S9-U3-U5-U7</f>
+        <v>369</v>
+      </c>
+      <c r="U10">
+        <f>T8+S9-U5-U7</f>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" t="s">
+        <v>307</v>
+      </c>
+      <c r="K11" t="s">
+        <v>311</v>
+      </c>
+      <c r="N11" t="s">
+        <v>309</v>
+      </c>
+      <c r="O11" t="s">
+        <v>307</v>
+      </c>
+      <c r="P11" t="s">
+        <v>311</v>
+      </c>
+      <c r="S11" t="s">
+        <v>309</v>
+      </c>
+      <c r="T11" t="s">
+        <v>307</v>
+      </c>
+      <c r="U11" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" s="30" customFormat="1">
+      <c r="I12" s="30">
+        <f>I10/I5</f>
+        <v>5</v>
+      </c>
+      <c r="J12" s="30">
+        <f>J10/I3</f>
+        <v>27</v>
+      </c>
+      <c r="K12" s="30">
+        <f>K10/I5</f>
+        <v>14</v>
+      </c>
+      <c r="N12" s="30">
+        <f>N10/N5</f>
+        <v>5</v>
+      </c>
+      <c r="O12" s="30">
+        <f>O10/N3</f>
+        <v>41</v>
+      </c>
+      <c r="P12" s="30">
+        <f>P10/N5</f>
+        <v>14</v>
+      </c>
+      <c r="S12" s="30">
+        <f>S10/S5</f>
+        <v>5</v>
+      </c>
+      <c r="T12" s="30">
+        <f>T10/S3</f>
+        <v>41</v>
+      </c>
+      <c r="U12" s="30">
+        <f>U10/S5</f>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>158</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
-      </c>
-      <c r="O13">
-        <v>4</v>
-      </c>
-      <c r="T13">
-        <v>6</v>
+        <v>157</v>
+      </c>
+      <c r="H13" t="s">
+        <v>145</v>
+      </c>
+      <c r="I13" t="s">
+        <v>143</v>
+      </c>
+      <c r="J13" t="s">
+        <v>142</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="M13" t="s">
+        <v>145</v>
+      </c>
+      <c r="N13" t="s">
+        <v>143</v>
+      </c>
+      <c r="O13" t="s">
+        <v>142</v>
+      </c>
+      <c r="P13" t="s">
+        <v>144</v>
+      </c>
+      <c r="R13" t="s">
+        <v>145</v>
+      </c>
+      <c r="S13" t="s">
+        <v>143</v>
+      </c>
+      <c r="T13" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" t="s">
+        <v>158</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>4</v>
+      </c>
+      <c r="T14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
         <v>159</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H15" t="s">
         <v>146</v>
       </c>
-      <c r="I14">
-        <f>J13/2</f>
+      <c r="I15">
+        <f>J14/2</f>
         <v>1</v>
       </c>
-      <c r="K14">
-        <f>I14</f>
+      <c r="K15">
+        <f>I15</f>
         <v>1</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M15" t="s">
         <v>146</v>
       </c>
-      <c r="N14">
-        <f>O13/2</f>
+      <c r="N15">
+        <f>O14/2</f>
         <v>2</v>
       </c>
-      <c r="P14">
-        <f>N14</f>
+      <c r="P15">
+        <f>N15</f>
         <v>2</v>
       </c>
-      <c r="R14" t="s">
+      <c r="R15" t="s">
         <v>146</v>
       </c>
-      <c r="S14">
-        <f>T13/2</f>
+      <c r="S15">
+        <f>T14/2</f>
         <v>3</v>
       </c>
-      <c r="U14">
-        <f>S14</f>
+      <c r="U15">
+        <f>S15</f>
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:21">
-      <c r="J15">
-        <f>J13+I14+K14</f>
+    <row r="16" spans="1:21">
+      <c r="J16">
+        <f>J14+I15+K15</f>
         <v>4</v>
       </c>
-      <c r="O15">
-        <f>O13+N14+P14</f>
+      <c r="O16">
+        <f>O14+N15+P15</f>
         <v>8</v>
       </c>
-      <c r="T15">
-        <f>T13+S14+U14</f>
+      <c r="T16">
+        <f>T14+S15+U15</f>
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
-      <c r="H16" t="s">
+    <row r="17" spans="8:21">
+      <c r="H17" t="s">
         <v>147</v>
       </c>
-      <c r="I16">
-        <f>J15/2</f>
+      <c r="I17">
+        <f>J16/2</f>
         <v>2</v>
       </c>
-      <c r="K16">
-        <f>I16</f>
+      <c r="K17">
+        <f>I17</f>
         <v>2</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>147</v>
       </c>
-      <c r="N16">
-        <f>O15/2</f>
+      <c r="N17">
+        <f>O16/2</f>
         <v>4</v>
       </c>
-      <c r="P16">
-        <f>N16</f>
+      <c r="P17">
+        <f>N17</f>
         <v>4</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R17" t="s">
         <v>147</v>
       </c>
-      <c r="S16">
-        <f>T15/2</f>
+      <c r="S17">
+        <f>T16/2</f>
         <v>6</v>
       </c>
-      <c r="U16">
-        <f>S16</f>
+      <c r="U17">
+        <f>S17</f>
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="8:21">
-      <c r="J17">
-        <f>J15+I16+K16</f>
+    <row r="18" spans="8:21">
+      <c r="J18">
+        <f>J16+I17+K17</f>
         <v>8</v>
       </c>
-      <c r="O17">
-        <f>O15+N16+P16</f>
+      <c r="O18">
+        <f>O16+N17+P17</f>
         <v>16</v>
       </c>
-      <c r="T17">
-        <f>T15+S16+U16</f>
+      <c r="T18">
+        <f>T16+S17+U17</f>
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="8:21">
-      <c r="H18" t="s">
+    <row r="19" spans="8:21">
+      <c r="H19" t="s">
         <v>148</v>
       </c>
-      <c r="I18">
-        <f>J17/2</f>
+      <c r="I19">
+        <f>J18/2</f>
         <v>4</v>
       </c>
-      <c r="K18">
-        <f>I18</f>
+      <c r="K19">
+        <f>I19</f>
         <v>4</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M19" t="s">
         <v>148</v>
       </c>
-      <c r="N18">
-        <f>O17/2</f>
+      <c r="N19">
+        <f>O18/2</f>
         <v>8</v>
       </c>
-      <c r="P18">
-        <f>N18</f>
+      <c r="P19">
+        <f>N19</f>
         <v>8</v>
       </c>
-      <c r="R18" t="s">
+      <c r="R19" t="s">
         <v>148</v>
       </c>
-      <c r="S18">
-        <f>T17/2</f>
+      <c r="S19">
+        <f>T18/2</f>
         <v>12</v>
       </c>
-      <c r="U18">
-        <f>S18</f>
+      <c r="U19">
+        <f>S19</f>
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="8:21">
-      <c r="J19">
-        <f>J17+I18+K18</f>
+    <row r="20" spans="8:21">
+      <c r="J20">
+        <f>J18+I19+K19</f>
         <v>16</v>
       </c>
-      <c r="O19">
-        <f>O17+N18+P18</f>
+      <c r="O20">
+        <f>O18+N19+P19</f>
         <v>32</v>
       </c>
-      <c r="T19">
-        <f>T17+S18+U18</f>
+      <c r="T20">
+        <f>T18+S19+U19</f>
         <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="8:21">
-      <c r="H20" t="s">
-        <v>149</v>
-      </c>
-      <c r="I20">
-        <f>J19/2</f>
-        <v>8</v>
-      </c>
-      <c r="K20">
-        <f>I20</f>
-        <v>8</v>
-      </c>
-      <c r="M20" t="s">
-        <v>149</v>
-      </c>
-      <c r="N20">
-        <f>O19/2</f>
-        <v>16</v>
-      </c>
-      <c r="P20">
-        <f>N20</f>
-        <v>16</v>
-      </c>
-      <c r="R20" t="s">
-        <v>149</v>
-      </c>
-      <c r="S20">
-        <f>T19/2</f>
-        <v>24</v>
-      </c>
-      <c r="U20">
-        <f>S20</f>
-        <v>24</v>
       </c>
     </row>
     <row r="21" spans="8:21">
       <c r="H21" t="s">
-        <v>150</v>
-      </c>
-      <c r="J21">
-        <f>J19+I20+K20</f>
-        <v>32</v>
+        <v>149</v>
+      </c>
+      <c r="I21">
+        <f>J20/2</f>
+        <v>8</v>
+      </c>
+      <c r="K21">
+        <f>I21</f>
+        <v>8</v>
       </c>
       <c r="M21" t="s">
-        <v>150</v>
-      </c>
-      <c r="O21">
-        <f>O19+N20+P20</f>
-        <v>64</v>
+        <v>149</v>
+      </c>
+      <c r="N21">
+        <f>O20/2</f>
+        <v>16</v>
+      </c>
+      <c r="P21">
+        <f>N21</f>
+        <v>16</v>
       </c>
       <c r="R21" t="s">
-        <v>150</v>
-      </c>
-      <c r="T21">
-        <f>T19+S20+U20</f>
-        <v>96</v>
+        <v>149</v>
+      </c>
+      <c r="S21">
+        <f>T20/2</f>
+        <v>24</v>
+      </c>
+      <c r="U21">
+        <f>S21</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="8:21">
+      <c r="H22" t="s">
+        <v>142</v>
+      </c>
+      <c r="I22">
+        <f>J20-K19-K17</f>
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <f>J20+I21-K15-K17-K19</f>
+        <v>17</v>
+      </c>
+      <c r="K22">
+        <f>J20+I21-K17-K19</f>
+        <v>18</v>
+      </c>
+      <c r="M22" t="s">
+        <v>142</v>
+      </c>
+      <c r="N22">
+        <f>O20-P19-P17</f>
+        <v>20</v>
+      </c>
+      <c r="O22">
+        <f>O20+N21-P15-P17-P19</f>
+        <v>34</v>
+      </c>
+      <c r="P22">
+        <f>O20+N21-P17-P19</f>
+        <v>36</v>
+      </c>
+      <c r="R22" t="s">
+        <v>142</v>
+      </c>
+      <c r="S22">
+        <f>T20-U19-U17</f>
+        <v>30</v>
+      </c>
+      <c r="T22">
+        <f>T20+S21-U15-U17-U19</f>
+        <v>51</v>
+      </c>
+      <c r="U22">
+        <f>T20+S21-U17-U19</f>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="8:21">
-      <c r="H23" t="s">
-        <v>145</v>
-      </c>
       <c r="I23" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="J23" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="K23" t="s">
-        <v>144</v>
-      </c>
-      <c r="M23" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="N23" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="O23" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="P23" t="s">
-        <v>144</v>
-      </c>
-      <c r="R23" t="s">
-        <v>145</v>
+        <v>311</v>
       </c>
       <c r="S23" t="s">
-        <v>143</v>
+        <v>309</v>
       </c>
       <c r="T23" t="s">
-        <v>142</v>
+        <v>307</v>
       </c>
       <c r="U23" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="8:21">
-      <c r="J24">
-        <v>4</v>
-      </c>
-      <c r="O24">
-        <v>8</v>
-      </c>
-      <c r="T24">
-        <v>12</v>
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="8:21" s="30" customFormat="1">
+      <c r="I24" s="30">
+        <f>I22/I17</f>
+        <v>5</v>
+      </c>
+      <c r="J24" s="30">
+        <f>J22/I15</f>
+        <v>17</v>
+      </c>
+      <c r="K24" s="30">
+        <f>K22/I17</f>
+        <v>9</v>
+      </c>
+      <c r="N24" s="30">
+        <f>N22/N17</f>
+        <v>5</v>
+      </c>
+      <c r="O24" s="30">
+        <f>O22/N15</f>
+        <v>17</v>
+      </c>
+      <c r="P24" s="30">
+        <f>P22/N17</f>
+        <v>9</v>
+      </c>
+      <c r="S24" s="30">
+        <f>S22/S17</f>
+        <v>5</v>
+      </c>
+      <c r="T24" s="30">
+        <f>T22/S15</f>
+        <v>17</v>
+      </c>
+      <c r="U24" s="30">
+        <f>U22/S17</f>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="8:21">
       <c r="H25" t="s">
-        <v>146</v>
-      </c>
-      <c r="I25">
-        <f>J24/4</f>
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <f>I25</f>
-        <v>1</v>
+        <v>145</v>
+      </c>
+      <c r="I25" t="s">
+        <v>143</v>
+      </c>
+      <c r="J25" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" t="s">
+        <v>144</v>
       </c>
       <c r="M25" t="s">
-        <v>146</v>
-      </c>
-      <c r="N25">
-        <f>O24/4</f>
-        <v>2</v>
-      </c>
-      <c r="P25">
-        <f>N25</f>
-        <v>2</v>
+        <v>145</v>
+      </c>
+      <c r="N25" t="s">
+        <v>143</v>
+      </c>
+      <c r="O25" t="s">
+        <v>142</v>
+      </c>
+      <c r="P25" t="s">
+        <v>144</v>
       </c>
       <c r="R25" t="s">
-        <v>146</v>
-      </c>
-      <c r="S25">
-        <f>T24/4</f>
-        <v>3</v>
-      </c>
-      <c r="U25">
-        <f>S25</f>
-        <v>3</v>
+        <v>145</v>
+      </c>
+      <c r="S25" t="s">
+        <v>143</v>
+      </c>
+      <c r="T25" t="s">
+        <v>142</v>
+      </c>
+      <c r="U25" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="8:21">
       <c r="J26">
-        <f>J24+I25+K25</f>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O26">
-        <f>O24+N25+P25</f>
+        <v>8</v>
+      </c>
+      <c r="T26">
         <v>12</v>
-      </c>
-      <c r="T26">
-        <f>T24+S25+U25</f>
-        <v>18</v>
       </c>
     </row>
     <row r="27" spans="8:21">
       <c r="H27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I27">
         <f>J26/4</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="K27">
         <f>I27</f>
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="N27">
         <f>O26/4</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P27">
         <f>N27</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="S27">
         <f>T26/4</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="U27">
         <f>S27</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="8:21">
       <c r="J28">
         <f>J26+I27+K27</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="O28">
         <f>O26+N27+P27</f>
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="T28">
         <f>T26+S27+U27</f>
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="8:21">
       <c r="H29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I29">
         <f>J28/4</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="K29">
         <f>I29</f>
-        <v>2.25</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="N29">
         <f>O28/4</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P29">
         <f>N29</f>
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="R29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="S29">
         <f>T28/4</f>
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
       <c r="U29">
         <f>S29</f>
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="30" spans="8:21">
       <c r="J30">
         <f>J28+I29+K29</f>
-        <v>13.5</v>
+        <v>9</v>
       </c>
       <c r="O30">
         <f>O28+N29+P29</f>
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="T30">
         <f>T28+S29+U29</f>
-        <v>40.5</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="8:21">
       <c r="H31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I31">
         <f>J30/4</f>
-        <v>3.375</v>
+        <v>2.25</v>
       </c>
       <c r="K31">
         <f>I31</f>
-        <v>3.375</v>
+        <v>2.25</v>
       </c>
       <c r="M31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="N31">
         <f>O30/4</f>
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
       <c r="P31">
         <f>N31</f>
-        <v>6.75</v>
+        <v>4.5</v>
       </c>
       <c r="R31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="S31">
         <f>T30/4</f>
-        <v>10.125</v>
+        <v>6.75</v>
       </c>
       <c r="U31">
         <f>S31</f>
-        <v>10.125</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="32" spans="8:21">
-      <c r="H32" t="s">
-        <v>150</v>
-      </c>
       <c r="J32">
         <f>J30+I31+K31</f>
-        <v>20.25</v>
-      </c>
-      <c r="M32" t="s">
-        <v>150</v>
+        <v>13.5</v>
       </c>
       <c r="O32">
         <f>O30+N31+P31</f>
-        <v>40.5</v>
-      </c>
-      <c r="R32" t="s">
-        <v>150</v>
+        <v>27</v>
       </c>
       <c r="T32">
         <f>T30+S31+U31</f>
-        <v>60.75</v>
+        <v>40.5</v>
+      </c>
+    </row>
+    <row r="33" spans="8:21">
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33">
+        <f>J32/4</f>
+        <v>3.375</v>
+      </c>
+      <c r="K33">
+        <f>I33</f>
+        <v>3.375</v>
+      </c>
+      <c r="M33" t="s">
+        <v>149</v>
+      </c>
+      <c r="N33">
+        <f>O32/4</f>
+        <v>6.75</v>
+      </c>
+      <c r="P33">
+        <f>N33</f>
+        <v>6.75</v>
+      </c>
+      <c r="R33" t="s">
+        <v>149</v>
+      </c>
+      <c r="S33">
+        <f>T32/4</f>
+        <v>10.125</v>
+      </c>
+      <c r="U33">
+        <f>S33</f>
+        <v>10.125</v>
       </c>
     </row>
     <row r="34" spans="8:21">
       <c r="H34" t="s">
+        <v>142</v>
+      </c>
+      <c r="I34">
+        <f>J32-K31-K29</f>
+        <v>9.75</v>
+      </c>
+      <c r="J34">
+        <f>J32+I33-K27-K29-K31</f>
+        <v>12.125</v>
+      </c>
+      <c r="K34">
+        <f>J32+I33-K29-K31</f>
+        <v>13.125</v>
+      </c>
+      <c r="M34" t="s">
+        <v>142</v>
+      </c>
+      <c r="N34">
+        <f>O32-P31-P29</f>
+        <v>19.5</v>
+      </c>
+      <c r="O34">
+        <f>O32+N33-P27-P29-P31</f>
+        <v>24.25</v>
+      </c>
+      <c r="P34">
+        <f>O32+N33-P29-P31</f>
+        <v>26.25</v>
+      </c>
+      <c r="R34" t="s">
+        <v>142</v>
+      </c>
+      <c r="S34">
+        <f>T32-U31-U29</f>
+        <v>29.25</v>
+      </c>
+      <c r="T34">
+        <f>T32+S33-U27-U29-U31</f>
+        <v>36.375</v>
+      </c>
+      <c r="U34">
+        <f>T32+S33-U29-U31</f>
+        <v>39.375</v>
+      </c>
+    </row>
+    <row r="35" spans="8:21">
+      <c r="I35" t="s">
+        <v>309</v>
+      </c>
+      <c r="J35" t="s">
+        <v>307</v>
+      </c>
+      <c r="K35" t="s">
+        <v>311</v>
+      </c>
+      <c r="N35" t="s">
+        <v>309</v>
+      </c>
+      <c r="O35" t="s">
+        <v>307</v>
+      </c>
+      <c r="P35" t="s">
+        <v>311</v>
+      </c>
+      <c r="S35" t="s">
+        <v>309</v>
+      </c>
+      <c r="T35" t="s">
+        <v>307</v>
+      </c>
+      <c r="U35" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="36" spans="8:21" s="30" customFormat="1">
+      <c r="I36" s="30">
+        <f>I34/I29</f>
+        <v>6.5</v>
+      </c>
+      <c r="J36" s="30">
+        <f>J34/I27</f>
+        <v>12.125</v>
+      </c>
+      <c r="K36" s="30">
+        <f>K34/I29</f>
+        <v>8.75</v>
+      </c>
+      <c r="N36" s="30">
+        <f>N34/N29</f>
+        <v>6.5</v>
+      </c>
+      <c r="O36" s="30">
+        <f>O34/N27</f>
+        <v>12.125</v>
+      </c>
+      <c r="P36" s="30">
+        <f>P34/N29</f>
+        <v>8.75</v>
+      </c>
+      <c r="S36" s="30">
+        <f>S34/S29</f>
+        <v>6.5</v>
+      </c>
+      <c r="T36" s="30">
+        <f>T34/S27</f>
+        <v>12.125</v>
+      </c>
+      <c r="U36" s="30">
+        <f>U34/S29</f>
+        <v>8.75</v>
+      </c>
+    </row>
+    <row r="37" spans="8:21">
+      <c r="H37" t="s">
         <v>145</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I37" t="s">
         <v>143</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J37" t="s">
         <v>142</v>
       </c>
-      <c r="K34" t="s">
+      <c r="K37" t="s">
         <v>144</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M37" t="s">
         <v>145</v>
       </c>
-      <c r="N34" t="s">
+      <c r="N37" t="s">
         <v>143</v>
       </c>
-      <c r="O34" t="s">
+      <c r="O37" t="s">
         <v>142</v>
       </c>
-      <c r="P34" t="s">
+      <c r="P37" t="s">
         <v>144</v>
       </c>
-      <c r="R34" t="s">
+      <c r="R37" t="s">
         <v>145</v>
       </c>
-      <c r="S34" t="s">
+      <c r="S37" t="s">
         <v>143</v>
       </c>
-      <c r="T34" t="s">
+      <c r="T37" t="s">
         <v>142</v>
       </c>
-      <c r="U34" t="s">
+      <c r="U37" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="8:21">
-      <c r="J35">
+    <row r="38" spans="8:21">
+      <c r="J38">
         <v>3</v>
       </c>
-      <c r="O35">
+      <c r="O38">
         <v>6</v>
       </c>
-      <c r="T35">
+      <c r="T38">
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="8:21">
-      <c r="H36" t="s">
+    <row r="39" spans="8:21">
+      <c r="H39" t="s">
         <v>146</v>
       </c>
-      <c r="I36">
-        <f>J35/3*2</f>
+      <c r="I39">
+        <f>J38/3*2</f>
         <v>2</v>
       </c>
-      <c r="K36">
-        <f>I36</f>
+      <c r="K39">
+        <f>I39</f>
         <v>2</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M39" t="s">
         <v>146</v>
       </c>
-      <c r="N36">
-        <f>O35/3*2</f>
+      <c r="N39">
+        <f>O38/3*2</f>
         <v>4</v>
       </c>
-      <c r="P36">
-        <f>N36</f>
+      <c r="P39">
+        <f>N39</f>
         <v>4</v>
       </c>
-      <c r="R36" t="s">
+      <c r="R39" t="s">
         <v>146</v>
       </c>
-      <c r="S36">
-        <f>T35/3*2</f>
+      <c r="S39">
+        <f>T38/3*2</f>
         <v>6</v>
       </c>
-      <c r="U36">
-        <f>S36</f>
+      <c r="U39">
+        <f>S39</f>
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="8:21">
-      <c r="J37">
-        <f>J35+I36+K36</f>
+    <row r="40" spans="8:21">
+      <c r="J40">
+        <f>J38+I39+K39</f>
         <v>7</v>
       </c>
-      <c r="O37">
-        <f>O35+N36+P36</f>
+      <c r="O40">
+        <f>O38+N39+P39</f>
         <v>14</v>
       </c>
-      <c r="T37">
-        <f>T35+S36+U36</f>
+      <c r="T40">
+        <f>T38+S39+U39</f>
         <v>21</v>
       </c>
     </row>
-    <row r="38" spans="8:21">
-      <c r="H38" t="s">
+    <row r="41" spans="8:21">
+      <c r="H41" t="s">
         <v>147</v>
       </c>
-      <c r="I38">
-        <f>J37/3*2</f>
+      <c r="I41">
+        <f>J40/3*2</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="K38">
-        <f>I38</f>
+      <c r="K41">
+        <f>I41</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="M38" t="s">
+      <c r="M41" t="s">
         <v>147</v>
       </c>
-      <c r="N38">
-        <f>O37/3*2</f>
+      <c r="N41">
+        <f>O40/3*2</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="P38">
-        <f>N38</f>
+      <c r="P41">
+        <f>N41</f>
         <v>9.3333333333333339</v>
       </c>
-      <c r="R38" t="s">
+      <c r="R41" t="s">
         <v>147</v>
       </c>
-      <c r="S38">
-        <f>T37/3*2</f>
+      <c r="S41">
+        <f>T40/3*2</f>
         <v>14</v>
       </c>
-      <c r="U38">
-        <f>S38</f>
+      <c r="U41">
+        <f>S41</f>
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="8:21">
-      <c r="J39">
-        <f>J37+I38+K38</f>
+    <row r="42" spans="8:21">
+      <c r="J42">
+        <f>J40+I41+K41</f>
         <v>16.333333333333336</v>
       </c>
-      <c r="O39">
-        <f>O37+N38+P38</f>
+      <c r="O42">
+        <f>O40+N41+P41</f>
         <v>32.666666666666671</v>
       </c>
-      <c r="T39">
-        <f>T37+S38+U38</f>
+      <c r="T42">
+        <f>T40+S41+U41</f>
         <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="8:21">
-      <c r="H40" t="s">
-        <v>148</v>
-      </c>
-      <c r="I40">
-        <f>J39/3*2</f>
-        <v>10.888888888888891</v>
-      </c>
-      <c r="K40">
-        <f>I40</f>
-        <v>10.888888888888891</v>
-      </c>
-      <c r="M40" t="s">
-        <v>148</v>
-      </c>
-      <c r="N40">
-        <f>O39/3*2</f>
-        <v>21.777777777777782</v>
-      </c>
-      <c r="P40">
-        <f>N40</f>
-        <v>21.777777777777782</v>
-      </c>
-      <c r="R40" t="s">
-        <v>148</v>
-      </c>
-      <c r="S40">
-        <f>T39/3*2</f>
-        <v>32.666666666666664</v>
-      </c>
-      <c r="U40">
-        <f>S40</f>
-        <v>32.666666666666664</v>
-      </c>
-    </row>
-    <row r="41" spans="8:21">
-      <c r="J41">
-        <f>J39+I40+K40</f>
-        <v>38.111111111111121</v>
-      </c>
-      <c r="O41">
-        <f>O39+N40+P40</f>
-        <v>76.222222222222243</v>
-      </c>
-      <c r="T41">
-        <f>T39+S40+U40</f>
-        <v>114.33333333333331</v>
-      </c>
-    </row>
-    <row r="42" spans="8:21">
-      <c r="H42" t="s">
-        <v>149</v>
-      </c>
-      <c r="I42">
-        <f>J41/3*2</f>
-        <v>25.407407407407415</v>
-      </c>
-      <c r="K42">
-        <f>I42</f>
-        <v>25.407407407407415</v>
-      </c>
-      <c r="M42" t="s">
-        <v>149</v>
-      </c>
-      <c r="N42">
-        <f>O41/3*2</f>
-        <v>50.814814814814831</v>
-      </c>
-      <c r="P42">
-        <f>N42</f>
-        <v>50.814814814814831</v>
-      </c>
-      <c r="R42" t="s">
-        <v>149</v>
-      </c>
-      <c r="S42">
-        <f>T41/3*2</f>
-        <v>76.222222222222214</v>
-      </c>
-      <c r="U42">
-        <f>S42</f>
-        <v>76.222222222222214</v>
       </c>
     </row>
     <row r="43" spans="8:21">
       <c r="H43" t="s">
-        <v>150</v>
-      </c>
-      <c r="J43">
-        <f>J41+I42+K42</f>
-        <v>88.925925925925952</v>
+        <v>148</v>
+      </c>
+      <c r="I43">
+        <f>J42/3*2</f>
+        <v>10.888888888888891</v>
+      </c>
+      <c r="K43">
+        <f>I43</f>
+        <v>10.888888888888891</v>
       </c>
       <c r="M43" t="s">
-        <v>150</v>
-      </c>
-      <c r="O43">
-        <f>O41+N42+P42</f>
-        <v>177.8518518518519</v>
+        <v>148</v>
+      </c>
+      <c r="N43">
+        <f>O42/3*2</f>
+        <v>21.777777777777782</v>
+      </c>
+      <c r="P43">
+        <f>N43</f>
+        <v>21.777777777777782</v>
       </c>
       <c r="R43" t="s">
-        <v>150</v>
-      </c>
-      <c r="T43">
-        <f>T41+S42+U42</f>
-        <v>266.77777777777777</v>
+        <v>148</v>
+      </c>
+      <c r="S43">
+        <f>T42/3*2</f>
+        <v>32.666666666666664</v>
+      </c>
+      <c r="U43">
+        <f>S43</f>
+        <v>32.666666666666664</v>
+      </c>
+    </row>
+    <row r="44" spans="8:21">
+      <c r="J44">
+        <f>J42+I43+K43</f>
+        <v>38.111111111111121</v>
+      </c>
+      <c r="O44">
+        <f>O42+N43+P43</f>
+        <v>76.222222222222243</v>
+      </c>
+      <c r="T44">
+        <f>T42+S43+U43</f>
+        <v>114.33333333333331</v>
       </c>
     </row>
     <row r="45" spans="8:21">
       <c r="H45" t="s">
-        <v>145</v>
-      </c>
-      <c r="I45" t="s">
-        <v>143</v>
-      </c>
-      <c r="J45" t="s">
+        <v>149</v>
+      </c>
+      <c r="I45">
+        <f>J44/3*2</f>
+        <v>25.407407407407415</v>
+      </c>
+      <c r="K45">
+        <f>I45</f>
+        <v>25.407407407407415</v>
+      </c>
+      <c r="M45" t="s">
+        <v>149</v>
+      </c>
+      <c r="N45">
+        <f>O44/3*2</f>
+        <v>50.814814814814831</v>
+      </c>
+      <c r="P45">
+        <f>N45</f>
+        <v>50.814814814814831</v>
+      </c>
+      <c r="R45" t="s">
+        <v>149</v>
+      </c>
+      <c r="S45">
+        <f>T44/3*2</f>
+        <v>76.222222222222214</v>
+      </c>
+      <c r="U45">
+        <f>S45</f>
+        <v>76.222222222222214</v>
+      </c>
+    </row>
+    <row r="46" spans="8:21">
+      <c r="H46" t="s">
         <v>142</v>
       </c>
-      <c r="K45" t="s">
-        <v>144</v>
-      </c>
-      <c r="M45" t="s">
-        <v>145</v>
-      </c>
-      <c r="N45" t="s">
-        <v>143</v>
-      </c>
-      <c r="O45" t="s">
+      <c r="I46">
+        <f>J44-K43-K41</f>
+        <v>22.555555555555561</v>
+      </c>
+      <c r="J46">
+        <f>J44+I45-K39-K41-K43</f>
+        <v>45.962962962962976</v>
+      </c>
+      <c r="K46">
+        <f>J44+I45-K41-K43</f>
+        <v>47.962962962962976</v>
+      </c>
+      <c r="M46" t="s">
         <v>142</v>
       </c>
-      <c r="P45" t="s">
-        <v>144</v>
-      </c>
-      <c r="R45" t="s">
-        <v>145</v>
-      </c>
-      <c r="S45" t="s">
-        <v>143</v>
-      </c>
-      <c r="T45" t="s">
+      <c r="N46">
+        <f>O44-P43-P41</f>
+        <v>45.111111111111121</v>
+      </c>
+      <c r="O46">
+        <f>O44+N45-P39-P41-P43</f>
+        <v>91.925925925925952</v>
+      </c>
+      <c r="P46">
+        <f>O44+N45-P41-P43</f>
+        <v>95.925925925925952</v>
+      </c>
+      <c r="R46" t="s">
         <v>142</v>
       </c>
-      <c r="U45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="8:21">
-      <c r="J46">
-        <v>4</v>
-      </c>
-      <c r="O46">
-        <v>6</v>
+      <c r="S46">
+        <f>T44-U43-U41</f>
+        <v>67.666666666666657</v>
       </c>
       <c r="T46">
-        <v>9</v>
+        <f>T44+S45-U39-U41-U43</f>
+        <v>137.88888888888889</v>
+      </c>
+      <c r="U46">
+        <f>T44+S45-U41-U43</f>
+        <v>143.88888888888889</v>
       </c>
     </row>
     <row r="47" spans="8:21">
-      <c r="H47" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47">
-        <f>J46/4*3</f>
-        <v>3</v>
-      </c>
-      <c r="K47">
-        <f>I47</f>
-        <v>3</v>
-      </c>
-      <c r="M47" t="s">
-        <v>146</v>
-      </c>
-      <c r="N47">
-        <f>O46/4*3</f>
-        <v>4.5</v>
-      </c>
-      <c r="P47">
-        <f>N47</f>
-        <v>4.5</v>
-      </c>
-      <c r="R47" t="s">
-        <v>146</v>
-      </c>
-      <c r="S47">
-        <f>T46/4*3</f>
-        <v>6.75</v>
-      </c>
-      <c r="U47">
-        <f>S47</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="48" spans="8:21">
-      <c r="J48">
-        <f>J46+I47+K47</f>
-        <v>10</v>
-      </c>
-      <c r="O48">
-        <f>O46+N47+P47</f>
-        <v>15</v>
-      </c>
-      <c r="T48">
-        <f>T46+S47+U47</f>
-        <v>22.5</v>
+      <c r="I47" t="s">
+        <v>309</v>
+      </c>
+      <c r="J47" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" t="s">
+        <v>311</v>
+      </c>
+      <c r="N47" t="s">
+        <v>309</v>
+      </c>
+      <c r="O47" t="s">
+        <v>307</v>
+      </c>
+      <c r="P47" t="s">
+        <v>311</v>
+      </c>
+      <c r="S47" t="s">
+        <v>309</v>
+      </c>
+      <c r="T47" t="s">
+        <v>307</v>
+      </c>
+      <c r="U47" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="8:21" s="30" customFormat="1">
+      <c r="I48" s="30">
+        <f>I46/I41</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="J48" s="30">
+        <f>J46/I39</f>
+        <v>22.981481481481488</v>
+      </c>
+      <c r="K48" s="30">
+        <f>K46/I41</f>
+        <v>10.27777777777778</v>
+      </c>
+      <c r="N48" s="30">
+        <f>N46/N41</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="O48" s="30">
+        <f>O46/N39</f>
+        <v>22.981481481481488</v>
+      </c>
+      <c r="P48" s="30">
+        <f>P46/N41</f>
+        <v>10.27777777777778</v>
+      </c>
+      <c r="S48" s="30">
+        <f>S46/S41</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="T48" s="30">
+        <f>T46/S39</f>
+        <v>22.981481481481481</v>
+      </c>
+      <c r="U48" s="30">
+        <f>U46/S41</f>
+        <v>10.277777777777777</v>
       </c>
     </row>
     <row r="49" spans="8:21">
       <c r="H49" t="s">
-        <v>147</v>
-      </c>
-      <c r="I49">
-        <f>J48/4*3</f>
-        <v>7.5</v>
-      </c>
-      <c r="K49">
-        <f>I49</f>
-        <v>7.5</v>
+        <v>145</v>
+      </c>
+      <c r="I49" t="s">
+        <v>143</v>
+      </c>
+      <c r="J49" t="s">
+        <v>142</v>
+      </c>
+      <c r="K49" t="s">
+        <v>144</v>
       </c>
       <c r="M49" t="s">
-        <v>147</v>
-      </c>
-      <c r="N49">
-        <f>O48/4*3</f>
-        <v>11.25</v>
-      </c>
-      <c r="P49">
-        <f>N49</f>
-        <v>11.25</v>
+        <v>145</v>
+      </c>
+      <c r="N49" t="s">
+        <v>143</v>
+      </c>
+      <c r="O49" t="s">
+        <v>142</v>
+      </c>
+      <c r="P49" t="s">
+        <v>144</v>
       </c>
       <c r="R49" t="s">
-        <v>147</v>
-      </c>
-      <c r="S49">
-        <f>T48/4*3</f>
-        <v>16.875</v>
-      </c>
-      <c r="U49">
-        <f>S49</f>
-        <v>16.875</v>
+        <v>145</v>
+      </c>
+      <c r="S49" t="s">
+        <v>143</v>
+      </c>
+      <c r="T49" t="s">
+        <v>142</v>
+      </c>
+      <c r="U49" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="50" spans="8:21">
       <c r="J50">
-        <f>J48+I49+K49</f>
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="O50">
-        <f>O48+N49+P49</f>
-        <v>37.5</v>
+        <v>6</v>
       </c>
       <c r="T50">
-        <f>T48+S49+U49</f>
-        <v>56.25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="8:21">
       <c r="H51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I51">
         <f>J50/4*3</f>
-        <v>18.75</v>
+        <v>3</v>
       </c>
       <c r="K51">
         <f>I51</f>
-        <v>18.75</v>
+        <v>3</v>
       </c>
       <c r="M51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N51">
         <f>O50/4*3</f>
-        <v>28.125</v>
+        <v>4.5</v>
       </c>
       <c r="P51">
         <f>N51</f>
-        <v>28.125</v>
+        <v>4.5</v>
       </c>
       <c r="R51" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S51">
         <f>T50/4*3</f>
-        <v>42.1875</v>
+        <v>6.75</v>
       </c>
       <c r="U51">
         <f>S51</f>
-        <v>42.1875</v>
+        <v>6.75</v>
       </c>
     </row>
     <row r="52" spans="8:21">
       <c r="J52">
         <f>J50+I51+K51</f>
-        <v>62.5</v>
+        <v>10</v>
       </c>
       <c r="O52">
         <f>O50+N51+P51</f>
-        <v>93.75</v>
+        <v>15</v>
       </c>
       <c r="T52">
         <f>T50+S51+U51</f>
-        <v>140.625</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="53" spans="8:21">
       <c r="H53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I53">
         <f>J52/4*3</f>
-        <v>46.875</v>
+        <v>7.5</v>
       </c>
       <c r="K53">
         <f>I53</f>
-        <v>46.875</v>
+        <v>7.5</v>
       </c>
       <c r="M53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="N53">
         <f>O52/4*3</f>
-        <v>70.3125</v>
+        <v>11.25</v>
       </c>
       <c r="P53">
         <f>N53</f>
-        <v>70.3125</v>
+        <v>11.25</v>
       </c>
       <c r="R53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="S53">
         <f>T52/4*3</f>
-        <v>105.46875</v>
+        <v>16.875</v>
       </c>
       <c r="U53">
         <f>S53</f>
-        <v>105.46875</v>
+        <v>16.875</v>
       </c>
     </row>
     <row r="54" spans="8:21">
-      <c r="H54" t="s">
-        <v>150</v>
-      </c>
       <c r="J54">
         <f>J52+I53+K53</f>
-        <v>156.25</v>
-      </c>
-      <c r="M54" t="s">
-        <v>150</v>
+        <v>25</v>
       </c>
       <c r="O54">
         <f>O52+N53+P53</f>
-        <v>234.375</v>
-      </c>
-      <c r="R54" t="s">
-        <v>150</v>
+        <v>37.5</v>
       </c>
       <c r="T54">
         <f>T52+S53+U53</f>
-        <v>351.5625</v>
+        <v>56.25</v>
+      </c>
+    </row>
+    <row r="55" spans="8:21">
+      <c r="H55" t="s">
+        <v>148</v>
+      </c>
+      <c r="I55">
+        <f>J54/4*3</f>
+        <v>18.75</v>
+      </c>
+      <c r="K55">
+        <f>I55</f>
+        <v>18.75</v>
+      </c>
+      <c r="M55" t="s">
+        <v>148</v>
+      </c>
+      <c r="N55">
+        <f>O54/4*3</f>
+        <v>28.125</v>
+      </c>
+      <c r="P55">
+        <f>N55</f>
+        <v>28.125</v>
+      </c>
+      <c r="R55" t="s">
+        <v>148</v>
+      </c>
+      <c r="S55">
+        <f>T54/4*3</f>
+        <v>42.1875</v>
+      </c>
+      <c r="U55">
+        <f>S55</f>
+        <v>42.1875</v>
+      </c>
+    </row>
+    <row r="56" spans="8:21">
+      <c r="J56">
+        <f>J54+I55+K55</f>
+        <v>62.5</v>
+      </c>
+      <c r="O56">
+        <f>O54+N55+P55</f>
+        <v>93.75</v>
+      </c>
+      <c r="T56">
+        <f>T54+S55+U55</f>
+        <v>140.625</v>
+      </c>
+    </row>
+    <row r="57" spans="8:21">
+      <c r="H57" t="s">
+        <v>149</v>
+      </c>
+      <c r="I57">
+        <f>J56/4*3</f>
+        <v>46.875</v>
+      </c>
+      <c r="K57">
+        <f>I57</f>
+        <v>46.875</v>
+      </c>
+      <c r="M57" t="s">
+        <v>149</v>
+      </c>
+      <c r="N57">
+        <f>O56/4*3</f>
+        <v>70.3125</v>
+      </c>
+      <c r="P57">
+        <f>N57</f>
+        <v>70.3125</v>
+      </c>
+      <c r="R57" t="s">
+        <v>149</v>
+      </c>
+      <c r="S57">
+        <f>T56/4*3</f>
+        <v>105.46875</v>
+      </c>
+      <c r="U57">
+        <f>S57</f>
+        <v>105.46875</v>
+      </c>
+    </row>
+    <row r="58" spans="8:21">
+      <c r="H58" t="s">
+        <v>142</v>
+      </c>
+      <c r="I58">
+        <f>J56-K55-K53</f>
+        <v>36.25</v>
+      </c>
+      <c r="J58">
+        <f>J56+I57-K51-K53-K55</f>
+        <v>80.125</v>
+      </c>
+      <c r="K58">
+        <f>J56+I57-K53-K55</f>
+        <v>83.125</v>
+      </c>
+      <c r="M58" t="s">
+        <v>142</v>
+      </c>
+      <c r="N58">
+        <f>O56-P55-P53</f>
+        <v>54.375</v>
+      </c>
+      <c r="O58">
+        <f>O56+N57-P51-P53-P55</f>
+        <v>120.1875</v>
+      </c>
+      <c r="P58">
+        <f>O56+N57-P53-P55</f>
+        <v>124.6875</v>
+      </c>
+      <c r="R58" t="s">
+        <v>142</v>
+      </c>
+      <c r="S58">
+        <f>T56-U55-U53</f>
+        <v>81.5625</v>
+      </c>
+      <c r="T58">
+        <f>T56+S57-U51-U53-U55</f>
+        <v>180.28125</v>
+      </c>
+      <c r="U58">
+        <f>T56+S57-U53-U55</f>
+        <v>187.03125</v>
+      </c>
+    </row>
+    <row r="59" spans="8:21">
+      <c r="I59" t="s">
+        <v>309</v>
+      </c>
+      <c r="J59" t="s">
+        <v>307</v>
+      </c>
+      <c r="K59" t="s">
+        <v>311</v>
+      </c>
+      <c r="N59" t="s">
+        <v>309</v>
+      </c>
+      <c r="O59" t="s">
+        <v>307</v>
+      </c>
+      <c r="P59" t="s">
+        <v>311</v>
+      </c>
+      <c r="S59" t="s">
+        <v>309</v>
+      </c>
+      <c r="T59" t="s">
+        <v>307</v>
+      </c>
+      <c r="U59" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="60" spans="8:21" s="30" customFormat="1">
+      <c r="I60" s="30">
+        <f>I58/I53</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="J60" s="30">
+        <f>J58/I51</f>
+        <v>26.708333333333332</v>
+      </c>
+      <c r="K60" s="30">
+        <f>K58/I53</f>
+        <v>11.083333333333334</v>
+      </c>
+      <c r="N60" s="30">
+        <f>N58/N53</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="O60" s="30">
+        <f>O58/N51</f>
+        <v>26.708333333333332</v>
+      </c>
+      <c r="P60" s="30">
+        <f>P58/N53</f>
+        <v>11.083333333333334</v>
+      </c>
+      <c r="S60" s="30">
+        <f>S58/S53</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="T60" s="30">
+        <f>T58/S51</f>
+        <v>26.708333333333332</v>
+      </c>
+      <c r="U60" s="30">
+        <f>U58/S53</f>
+        <v>11.083333333333334</v>
+      </c>
+    </row>
+    <row r="61" spans="8:21">
+      <c r="H61" t="s">
+        <v>145</v>
+      </c>
+      <c r="I61" t="s">
+        <v>143</v>
+      </c>
+      <c r="J61" t="s">
+        <v>142</v>
+      </c>
+      <c r="K61" t="s">
+        <v>144</v>
+      </c>
+      <c r="M61" t="s">
+        <v>145</v>
+      </c>
+      <c r="N61" t="s">
+        <v>143</v>
+      </c>
+      <c r="O61" t="s">
+        <v>142</v>
+      </c>
+      <c r="P61" t="s">
+        <v>144</v>
+      </c>
+      <c r="R61" t="s">
+        <v>145</v>
+      </c>
+      <c r="S61" t="s">
+        <v>143</v>
+      </c>
+      <c r="T61" t="s">
+        <v>142</v>
+      </c>
+      <c r="U61" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="62" spans="8:21">
+      <c r="J62">
+        <v>3</v>
+      </c>
+      <c r="O62">
+        <v>6</v>
+      </c>
+      <c r="T62">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63" spans="8:21">
+      <c r="H63" t="s">
+        <v>146</v>
+      </c>
+      <c r="I63">
+        <f>J62/3</f>
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <f>I63</f>
+        <v>1</v>
+      </c>
+      <c r="M63" t="s">
+        <v>146</v>
+      </c>
+      <c r="N63">
+        <f>O62/3</f>
+        <v>2</v>
+      </c>
+      <c r="P63">
+        <f>N63</f>
+        <v>2</v>
+      </c>
+      <c r="R63" t="s">
+        <v>146</v>
+      </c>
+      <c r="S63">
+        <f>T62/3</f>
+        <v>3</v>
+      </c>
+      <c r="U63">
+        <f>S63</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="8:21">
+      <c r="J64">
+        <f>J62+I63+K63</f>
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <f>O62+N63+P63</f>
+        <v>10</v>
+      </c>
+      <c r="T64">
+        <f>T62+S63+U63</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="8:21">
+      <c r="H65" t="s">
+        <v>147</v>
+      </c>
+      <c r="I65">
+        <f>J64/3*2</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K65">
+        <f>I65</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="M65" t="s">
+        <v>147</v>
+      </c>
+      <c r="N65">
+        <f>O64/3*2</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="P65">
+        <f>N65</f>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="R65" t="s">
+        <v>147</v>
+      </c>
+      <c r="S65">
+        <f>T64/3*2</f>
+        <v>10</v>
+      </c>
+      <c r="U65">
+        <f>S65</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="8:21">
+      <c r="J66">
+        <f>J64+I65+K65</f>
+        <v>11.666666666666668</v>
+      </c>
+      <c r="O66">
+        <f>O64+N65+P65</f>
+        <v>23.333333333333336</v>
+      </c>
+      <c r="T66">
+        <f>T64+S65+U65</f>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="8:21">
+      <c r="H67" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67">
+        <f>J66/3*2</f>
+        <v>7.7777777777777786</v>
+      </c>
+      <c r="K67">
+        <f>I67</f>
+        <v>7.7777777777777786</v>
+      </c>
+      <c r="M67" t="s">
+        <v>148</v>
+      </c>
+      <c r="N67">
+        <f>O66/3*2</f>
+        <v>15.555555555555557</v>
+      </c>
+      <c r="P67">
+        <f>N67</f>
+        <v>15.555555555555557</v>
+      </c>
+      <c r="R67" t="s">
+        <v>148</v>
+      </c>
+      <c r="S67">
+        <f>T66/3*2</f>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="U67">
+        <f>S67</f>
+        <v>23.333333333333332</v>
+      </c>
+    </row>
+    <row r="68" spans="8:21">
+      <c r="J68">
+        <f>J66+I67+K67</f>
+        <v>27.222222222222225</v>
+      </c>
+      <c r="O68">
+        <f>O66+N67+P67</f>
+        <v>54.44444444444445</v>
+      </c>
+      <c r="T68">
+        <f>T66+S67+U67</f>
+        <v>81.666666666666657</v>
+      </c>
+    </row>
+    <row r="69" spans="8:21">
+      <c r="H69" t="s">
+        <v>149</v>
+      </c>
+      <c r="I69">
+        <f>J68/3*2</f>
+        <v>18.148148148148149</v>
+      </c>
+      <c r="K69">
+        <f>I69</f>
+        <v>18.148148148148149</v>
+      </c>
+      <c r="M69" t="s">
+        <v>149</v>
+      </c>
+      <c r="N69">
+        <f>O68/3*2</f>
+        <v>36.296296296296298</v>
+      </c>
+      <c r="P69">
+        <f>N69</f>
+        <v>36.296296296296298</v>
+      </c>
+      <c r="R69" t="s">
+        <v>149</v>
+      </c>
+      <c r="S69">
+        <f>T68/3*2</f>
+        <v>54.444444444444436</v>
+      </c>
+      <c r="U69">
+        <f>S69</f>
+        <v>54.444444444444436</v>
+      </c>
+    </row>
+    <row r="70" spans="8:21">
+      <c r="H70" t="s">
+        <v>142</v>
+      </c>
+      <c r="I70">
+        <f>J68-K67-K65</f>
+        <v>16.111111111111114</v>
+      </c>
+      <c r="J70">
+        <f>J68+I69-K63-K65-K67</f>
+        <v>33.25925925925926</v>
+      </c>
+      <c r="K70">
+        <f>J68+I69-K65-K67</f>
+        <v>34.25925925925926</v>
+      </c>
+      <c r="M70" t="s">
+        <v>142</v>
+      </c>
+      <c r="N70">
+        <f>O68-P67-P65</f>
+        <v>32.222222222222229</v>
+      </c>
+      <c r="O70">
+        <f>O68+N69-P63-P65-P67</f>
+        <v>66.518518518518519</v>
+      </c>
+      <c r="P70">
+        <f>O68+N69-P65-P67</f>
+        <v>68.518518518518519</v>
+      </c>
+      <c r="R70" t="s">
+        <v>142</v>
+      </c>
+      <c r="S70">
+        <f>T68-U67-U65</f>
+        <v>48.333333333333329</v>
+      </c>
+      <c r="T70">
+        <f>T68+S69-U63-U65-U67</f>
+        <v>99.777777777777757</v>
+      </c>
+      <c r="U70">
+        <f>T68+S69-U65-U67</f>
+        <v>102.77777777777776</v>
+      </c>
+    </row>
+    <row r="71" spans="8:21">
+      <c r="I71" t="s">
+        <v>309</v>
+      </c>
+      <c r="J71" t="s">
+        <v>307</v>
+      </c>
+      <c r="K71" t="s">
+        <v>311</v>
+      </c>
+      <c r="N71" t="s">
+        <v>309</v>
+      </c>
+      <c r="O71" t="s">
+        <v>307</v>
+      </c>
+      <c r="P71" t="s">
+        <v>311</v>
+      </c>
+      <c r="S71" t="s">
+        <v>309</v>
+      </c>
+      <c r="T71" t="s">
+        <v>307</v>
+      </c>
+      <c r="U71" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="72" spans="8:21">
+      <c r="H72" s="30"/>
+      <c r="I72" s="30">
+        <f>I70/I65</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="J72" s="30">
+        <f>J70/I63</f>
+        <v>33.25925925925926</v>
+      </c>
+      <c r="K72" s="30">
+        <f>K70/I65</f>
+        <v>10.277777777777777</v>
+      </c>
+      <c r="L72" s="30"/>
+      <c r="M72" s="30"/>
+      <c r="N72" s="30">
+        <f>N70/N65</f>
+        <v>4.8333333333333339</v>
+      </c>
+      <c r="O72" s="30">
+        <f>O70/N63</f>
+        <v>33.25925925925926</v>
+      </c>
+      <c r="P72" s="30">
+        <f>P70/N65</f>
+        <v>10.277777777777777</v>
+      </c>
+      <c r="Q72" s="30"/>
+      <c r="R72" s="30"/>
+      <c r="S72" s="30">
+        <f>S70/S65</f>
+        <v>4.833333333333333</v>
+      </c>
+      <c r="T72" s="30">
+        <f>T70/S63</f>
+        <v>33.259259259259252</v>
+      </c>
+      <c r="U72" s="30">
+        <f>U70/S65</f>
+        <v>10.277777777777775</v>
       </c>
     </row>
   </sheetData>
@@ -8770,7 +12463,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N30"/>
   <sheetViews>
@@ -8822,7 +12515,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:14" ht="22.5">
+    <row r="3" spans="1:14" ht="33.75">
       <c r="A3" s="12" t="s">
         <v>288</v>
       </c>
@@ -8937,7 +12630,7 @@
       <c r="B6" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f>2/3*12/12</f>
         <v>0.66666666666666663</v>
       </c>
@@ -8956,7 +12649,7 @@
       <c r="I6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>8.6999999999999993</v>
       </c>
       <c r="K6" s="18">
@@ -8973,7 +12666,7 @@
       <c r="B7" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>1/2*12/12</f>
         <v>0.5</v>
       </c>
@@ -8992,7 +12685,7 @@
       <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>2.2000000000000002</v>
       </c>
       <c r="K7" s="18">
@@ -9108,11 +12801,11 @@
         <f>H5&amp;B13</f>
         <v>两端顺子听牌的期望{ev}:</v>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="32" t="str">
         <f>H6&amp;"或"&amp;H8&amp;B13</f>
         <v>内听顺子或两对的期望{ev}:</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="12" t="str">
         <f>H10&amp;B13</f>
         <v>两张单的期望{ev}:</v>
@@ -9160,27 +12853,27 @@
         <v>298</v>
       </c>
       <c r="C15" s="20">
-        <f>$C$1*F4+(1-F4)*($C$1*1-$K$4*C4)</f>
+        <f t="shared" ref="C15:C20" si="0">$C$1*F4+(1-F4)*($C$1*1-$K$4*C4)</f>
         <v>-2.4999999999999911E-2</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" ref="D15:D20" si="0">$C$1*$F4+(1-$F4)*($C$1*1-$K$5*$C4)</f>
+        <f t="shared" ref="D15:D20" si="1">$C$1*$F4+(1-$F4)*($C$1*1-$K$5*$C4)</f>
         <v>-0.18500000000000005</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" ref="E15:F20" si="1">$C$1*$F4+(1-$F4)*($C$1*1-$K$6*$C4)</f>
+        <f t="shared" ref="F15:F20" si="2">$C$1*$F4+(1-$F4)*($C$1*1-$K$6*$C4)</f>
         <v>-1.625</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" ref="F15:G20" si="2">$C$1*$F4+(1-$F4)*($C$1*1-$K$10*$C4)</f>
+        <f t="shared" ref="G15:G20" si="3">$C$1*$F4+(1-$F4)*($C$1*1-$K$10*$C4)</f>
         <v>-0.67500000000000004</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" ref="H15:I20" si="3">$C$1*$F4+(1-$F4)*($C$1*1-$K$9*$C4)</f>
+        <f t="shared" ref="H15:H20" si="4">$C$1*$F4+(1-$F4)*($C$1*1-$K$9*$C4)</f>
         <v>-4.5650000000000004</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" ref="I15:I20" si="4">$C$1*$F4+(1-$F4)*($C$1*1-$K$7*$C4)</f>
+        <f t="shared" ref="I15:I20" si="5">$C$1*$F4+(1-$F4)*($C$1*1-$K$7*$C4)</f>
         <v>-10.365</v>
       </c>
     </row>
@@ -9189,27 +12882,27 @@
         <v>298</v>
       </c>
       <c r="C16" s="20">
-        <f>$C$1*F5+(1-F5)*($C$1*1-$K$4*C5)</f>
+        <f t="shared" si="0"/>
         <v>-0.22999999999999998</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-0.42200000000000004</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-2.15</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-1.0100000000000002</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.6780000000000008</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-12.638</v>
       </c>
     </row>
@@ -9217,29 +12910,29 @@
       <c r="B17" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="25">
-        <f>$C$1*F6+(1-F6)*($C$1*1-$K$4*C6)</f>
+      <c r="C17" s="24">
+        <f t="shared" si="0"/>
         <v>-0.36666666666666647</v>
       </c>
-      <c r="D17" s="25">
-        <f t="shared" si="0"/>
+      <c r="D17" s="24">
+        <f t="shared" si="1"/>
         <v>-0.58000000000000007</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="25">
-        <f t="shared" si="1"/>
+      <c r="F17" s="24">
+        <f t="shared" si="2"/>
         <v>-2.5</v>
       </c>
-      <c r="G17" s="25">
-        <f t="shared" si="2"/>
+      <c r="G17" s="24">
+        <f t="shared" si="3"/>
         <v>-1.2333333333333334</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-6.42</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-14.153333333333332</v>
       </c>
     </row>
@@ -9247,29 +12940,29 @@
       <c r="B18" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C18" s="25">
-        <f>$C$1*F7+(1-F7)*($C$1*1-$K$4*C7)</f>
+      <c r="C18" s="24">
+        <f t="shared" si="0"/>
         <v>-0.12749999999999989</v>
       </c>
-      <c r="D18" s="25">
-        <f t="shared" si="0"/>
+      <c r="D18" s="24">
+        <f t="shared" si="1"/>
         <v>-0.30350000000000016</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="25">
-        <f t="shared" si="1"/>
+      <c r="F18" s="24">
+        <f t="shared" si="2"/>
         <v>-1.8875000000000004</v>
       </c>
-      <c r="G18" s="25">
-        <f t="shared" si="2"/>
+      <c r="G18" s="24">
+        <f t="shared" si="3"/>
         <v>-0.84250000000000025</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-5.1215000000000011</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-11.501500000000002</v>
       </c>
     </row>
@@ -9278,27 +12971,27 @@
         <v>298</v>
       </c>
       <c r="C19" s="20">
-        <f>$C$1*F8+(1-F8)*($C$1*1-$K$4*C8)</f>
+        <f t="shared" si="0"/>
         <v>0.11166666666666678</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>-2.7000000000000079E-2</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.2749999999999999</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.45166666666666677</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.823</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.8496666666666659</v>
       </c>
     </row>
@@ -9307,32 +13000,32 @@
         <v>298</v>
       </c>
       <c r="C20" s="20">
-        <f>$C$1*F9+(1-F9)*($C$1*1-$K$4*C9)</f>
+        <f t="shared" si="0"/>
         <v>0.18000000000000008</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.1999999999999963E-2</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.34</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-3.4520000000000004</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-8.0920000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="J21" s="24"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12" t="s">
@@ -9375,39 +13068,39 @@
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$4*$C3)</f>
         <v>0.94</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$4*$C3)</f>
         <v>0.91499999999999992</v>
       </c>
       <c r="D24" s="20">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$5*$C3)</f>
+        <f t="shared" ref="D24:D30" si="6">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$5*$C3)</f>
         <v>0.87599999999999989</v>
       </c>
-      <c r="E24" s="28">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$5*$C3)</f>
+      <c r="E24" s="27">
+        <f t="shared" ref="E24:E30" si="7">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$5*$C3)</f>
         <v>0.85099999999999987</v>
       </c>
       <c r="F24" s="20">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$6*$C3)</f>
+        <f t="shared" ref="F24:F30" si="8">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$6*$C3)</f>
         <v>0.29999999999999938</v>
       </c>
-      <c r="G24" s="28">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$6*$C3)</f>
+      <c r="G24" s="27">
+        <f t="shared" ref="G24:G30" si="9">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$6*$C3)</f>
         <v>0.27499999999999936</v>
       </c>
       <c r="H24" s="20">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$10*$C3)</f>
+        <f t="shared" ref="H24:H30" si="10">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$10*$C3)</f>
         <v>0.67999999999999972</v>
       </c>
-      <c r="I24" s="28">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$10*$C3)</f>
+      <c r="I24" s="27">
+        <f t="shared" ref="I24:I30" si="11">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$10*$C3)</f>
         <v>0.65499999999999969</v>
       </c>
       <c r="J24" s="20">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$9*$C3)</f>
         <v>-0.87600000000000189</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$9*$C3)</f>
         <v>-0.9010000000000018</v>
       </c>
@@ -9415,310 +13108,310 @@
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$7*$C3)</f>
         <v>-3.1960000000000033</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="27">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$7*$C3)</f>
         <v>-3.2210000000000036</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*M4-$K$4*$C4)</f>
+        <f t="shared" ref="B25:C30" si="12">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*M4-$K$4*$C4)</f>
         <v>0.625</v>
       </c>
-      <c r="C25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*N4-$K$4*$C4)</f>
+      <c r="C25" s="27">
+        <f t="shared" si="12"/>
         <v>0.85000000000000009</v>
       </c>
       <c r="D25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$5*$C4)</f>
+        <f t="shared" si="6"/>
         <v>0.46499999999999986</v>
       </c>
-      <c r="E25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$5*$C4)</f>
+      <c r="E25" s="27">
+        <f t="shared" si="7"/>
         <v>0.69</v>
       </c>
       <c r="F25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$6*$C4)</f>
+        <f t="shared" si="8"/>
         <v>-0.97500000000000009</v>
       </c>
-      <c r="G25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$6*$C4)</f>
+      <c r="G25" s="27">
+        <f t="shared" si="9"/>
         <v>-0.75</v>
       </c>
       <c r="H25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$10*$C4)</f>
+        <f t="shared" si="10"/>
         <v>-2.5000000000000133E-2</v>
       </c>
-      <c r="I25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$10*$C4)</f>
+      <c r="I25" s="27">
+        <f t="shared" si="11"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" ref="J25:L30" si="5">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$9*$C4)</f>
+        <f t="shared" ref="J25:J30" si="13">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$9*$C4)</f>
         <v>-3.9150000000000009</v>
       </c>
-      <c r="K25" s="28">
-        <f t="shared" ref="K25:M30" si="6">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$9*$C4)</f>
+      <c r="K25" s="27">
+        <f t="shared" ref="K25:K30" si="14">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$9*$C4)</f>
         <v>-3.6900000000000004</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" ref="L25:L30" si="7">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$7*$C4)</f>
+        <f t="shared" ref="L25:L30" si="15">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$7*$C4)</f>
         <v>-9.7149999999999999</v>
       </c>
-      <c r="M25" s="28">
-        <f t="shared" ref="M25:M30" si="8">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$7*$C4)</f>
+      <c r="M25" s="27">
+        <f t="shared" ref="M25:M30" si="16">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$7*$C4)</f>
         <v>-9.49</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*M5-$K$4*$C5)</f>
+        <f t="shared" si="12"/>
         <v>0.37000000000000011</v>
       </c>
-      <c r="C26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*N5-$K$4*$C5)</f>
+      <c r="C26" s="27">
+        <f t="shared" si="12"/>
         <v>0.87000000000000011</v>
       </c>
       <c r="D26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$M5-$K$5*$C5)</f>
+        <f t="shared" si="6"/>
         <v>0.17799999999999988</v>
       </c>
-      <c r="E26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$N5-$K$5*$C5)</f>
+      <c r="E26" s="27">
+        <f t="shared" si="7"/>
         <v>0.67799999999999994</v>
       </c>
       <c r="F26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$M5-$K$6*$C5)</f>
+        <f t="shared" si="8"/>
         <v>-1.5499999999999998</v>
       </c>
-      <c r="G26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$N5-$K$6*$C5)</f>
+      <c r="G26" s="27">
+        <f t="shared" si="9"/>
         <v>-1.0500000000000003</v>
       </c>
       <c r="H26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$M5-$K$10*$C5)</f>
+        <f t="shared" si="10"/>
         <v>-0.41000000000000025</v>
       </c>
-      <c r="I26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$N5-$K$10*$C5)</f>
+      <c r="I26" s="27">
+        <f t="shared" si="11"/>
         <v>8.9999999999999858E-2</v>
       </c>
       <c r="J26" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-5.0780000000000012</v>
       </c>
-      <c r="K26" s="28">
-        <f t="shared" si="6"/>
+      <c r="K26" s="27">
+        <f t="shared" si="14"/>
         <v>-4.5780000000000012</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-12.038</v>
       </c>
-      <c r="M26" s="28">
-        <f t="shared" si="8"/>
+      <c r="M26" s="27">
+        <f t="shared" si="16"/>
         <v>-11.538</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="11"/>
-      <c r="B27" s="25">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*M6-$K$4*$C6)</f>
+      <c r="B27" s="24">
+        <f t="shared" si="12"/>
         <v>6.6666666666666763E-2</v>
       </c>
-      <c r="C27" s="29">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*N6-$K$4*$C6)</f>
+      <c r="C27" s="28">
+        <f t="shared" si="12"/>
         <v>0.8833333333333333</v>
       </c>
       <c r="D27" s="20">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$M6-$K$5*$C6)</f>
+        <f t="shared" si="6"/>
         <v>-0.14666666666666683</v>
       </c>
-      <c r="E27" s="28">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$N6-$K$5*$C6)</f>
+      <c r="E27" s="27">
+        <f t="shared" si="7"/>
         <v>0.66999999999999971</v>
       </c>
       <c r="F27" s="20">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$M6-$K$6*$C6)</f>
+        <f t="shared" si="8"/>
         <v>-2.0666666666666669</v>
       </c>
-      <c r="G27" s="28">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$N6-$K$6*$C6)</f>
+      <c r="G27" s="27">
+        <f t="shared" si="9"/>
         <v>-1.2500000000000002</v>
       </c>
       <c r="H27" s="20">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$M6-$K$10*$C6)</f>
+        <f t="shared" si="10"/>
         <v>-0.80000000000000027</v>
       </c>
-      <c r="I27" s="28">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$N6-$K$10*$C6)</f>
+      <c r="I27" s="27">
+        <f t="shared" si="11"/>
         <v>1.6666666666666385E-2</v>
       </c>
       <c r="J27" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-5.9866666666666664</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" si="6"/>
+      <c r="K27" s="27">
+        <f t="shared" si="14"/>
         <v>-5.17</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-13.719999999999999</v>
       </c>
-      <c r="M27" s="28">
-        <f t="shared" si="8"/>
+      <c r="M27" s="27">
+        <f t="shared" si="16"/>
         <v>-12.903333333333332</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="11"/>
-      <c r="B28" s="25">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*M7-$K$4*$C7)</f>
+      <c r="B28" s="24">
+        <f t="shared" si="12"/>
         <v>-1.749999999999996E-2</v>
       </c>
-      <c r="C28" s="29">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*N7-$K$4*$C7)</f>
+      <c r="C28" s="28">
+        <f t="shared" si="12"/>
         <v>0.97250000000000014</v>
       </c>
       <c r="D28" s="20">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$M7-$K$5*$C7)</f>
+        <f t="shared" si="6"/>
         <v>-0.19350000000000017</v>
       </c>
-      <c r="E28" s="28">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$N7-$K$5*$C7)</f>
+      <c r="E28" s="27">
+        <f t="shared" si="7"/>
         <v>0.79649999999999999</v>
       </c>
       <c r="F28" s="20">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$M7-$K$6*$C7)</f>
+        <f t="shared" si="8"/>
         <v>-1.7775000000000001</v>
       </c>
-      <c r="G28" s="28">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$N7-$K$6*$C7)</f>
+      <c r="G28" s="27">
+        <f t="shared" si="9"/>
         <v>-0.78750000000000009</v>
       </c>
       <c r="H28" s="20">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$M7-$K$10*$C7)</f>
+        <f t="shared" si="10"/>
         <v>-0.73250000000000037</v>
       </c>
-      <c r="I28" s="28">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$N7-$K$10*$C7)</f>
+      <c r="I28" s="27">
+        <f t="shared" si="11"/>
         <v>0.25749999999999995</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-5.0115000000000007</v>
       </c>
-      <c r="K28" s="28">
-        <f t="shared" si="6"/>
+      <c r="K28" s="27">
+        <f t="shared" si="14"/>
         <v>-4.0215000000000005</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-11.391500000000002</v>
       </c>
-      <c r="M28" s="28">
-        <f t="shared" si="8"/>
+      <c r="M28" s="27">
+        <f t="shared" si="16"/>
         <v>-10.401500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="B29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*M8-$K$4*$C8)</f>
+        <f t="shared" si="12"/>
         <v>-0.10499999999999993</v>
       </c>
-      <c r="C29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*N8-$K$4*$C8)</f>
+      <c r="C29" s="27">
+        <f t="shared" si="12"/>
         <v>1.0866666666666669</v>
       </c>
       <c r="D29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$M8-$K$5*$C8)</f>
+        <f t="shared" si="6"/>
         <v>-0.24366666666666681</v>
       </c>
-      <c r="E29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$N8-$K$5*$C8)</f>
+      <c r="E29" s="27">
+        <f t="shared" si="7"/>
         <v>0.94799999999999995</v>
       </c>
       <c r="F29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$M8-$K$6*$C8)</f>
+        <f t="shared" si="8"/>
         <v>-1.4916666666666667</v>
       </c>
-      <c r="G29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$N8-$K$6*$C8)</f>
+      <c r="G29" s="27">
+        <f t="shared" si="9"/>
         <v>-0.30000000000000004</v>
       </c>
       <c r="H29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$M8-$K$10*$C8)</f>
+        <f t="shared" si="10"/>
         <v>-0.66833333333333356</v>
       </c>
-      <c r="I29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$N8-$K$10*$C8)</f>
+      <c r="I29" s="27">
+        <f t="shared" si="11"/>
         <v>0.52333333333333332</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-4.0396666666666672</v>
       </c>
-      <c r="K29" s="28">
-        <f t="shared" si="6"/>
+      <c r="K29" s="27">
+        <f t="shared" si="14"/>
         <v>-2.8479999999999999</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-9.0663333333333345</v>
       </c>
-      <c r="M29" s="28">
-        <f t="shared" si="8"/>
+      <c r="M29" s="27">
+        <f t="shared" si="16"/>
         <v>-7.8746666666666663</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*M9-$K$4*$C9)</f>
+        <f t="shared" si="12"/>
         <v>-0.37999999999999995</v>
       </c>
-      <c r="C30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*N9-$K$4*$C9)</f>
+      <c r="C30" s="27">
+        <f t="shared" si="12"/>
         <v>1.1800000000000002</v>
       </c>
       <c r="D30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$M9-$K$5*$C9)</f>
+        <f t="shared" si="6"/>
         <v>-0.50800000000000001</v>
       </c>
-      <c r="E30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$N9-$K$5*$C9)</f>
+      <c r="E30" s="27">
+        <f t="shared" si="7"/>
         <v>1.052</v>
       </c>
       <c r="F30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$M9-$K$6*$C9)</f>
+        <f t="shared" si="8"/>
         <v>-1.6600000000000004</v>
       </c>
-      <c r="G30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$N9-$K$6*$C9)</f>
+      <c r="G30" s="27">
+        <f t="shared" si="9"/>
         <v>-0.10000000000000003</v>
       </c>
       <c r="H30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$M9-$K$10*$C9)</f>
+        <f t="shared" si="10"/>
         <v>-0.90000000000000013</v>
       </c>
-      <c r="I30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$N9-$K$10*$C9)</f>
+      <c r="I30" s="27">
+        <f t="shared" si="11"/>
         <v>0.65999999999999992</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>-4.0120000000000005</v>
       </c>
-      <c r="K30" s="28">
-        <f t="shared" si="6"/>
+      <c r="K30" s="27">
+        <f t="shared" si="14"/>
         <v>-2.4520000000000004</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
         <v>-8.652000000000001</v>
       </c>
-      <c r="M30" s="28">
-        <f t="shared" si="8"/>
+      <c r="M30" s="27">
+        <f t="shared" si="16"/>
         <v>-7.0920000000000005</v>
       </c>
     </row>
@@ -9731,7 +13424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q30"/>
   <sheetViews>
@@ -9827,7 +13520,7 @@
       <c r="N3" s="12">
         <v>0.6</v>
       </c>
-      <c r="P3" s="24">
+      <c r="P3" s="23">
         <f>$C3*2+$C$1</f>
         <v>5</v>
       </c>
@@ -9871,7 +13564,7 @@
       <c r="N4" s="12">
         <v>0.6</v>
       </c>
-      <c r="P4" s="24">
+      <c r="P4" s="23">
         <f t="shared" ref="P4:P9" si="0">$C4*2+$C$1</f>
         <v>3</v>
       </c>
@@ -9915,12 +13608,12 @@
       <c r="N5" s="12">
         <v>0.6</v>
       </c>
-      <c r="P5" s="24">
+      <c r="P5" s="23">
         <f t="shared" si="0"/>
         <v>2.5</v>
       </c>
       <c r="Q5" s="19">
-        <f t="shared" ref="Q5:Q10" si="1">C5</f>
+        <f t="shared" ref="Q5:Q9" si="1">C5</f>
         <v>0.75</v>
       </c>
     </row>
@@ -9928,7 +13621,7 @@
       <c r="B6" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C6" s="26">
+      <c r="C6" s="25">
         <f>2/3*12/12</f>
         <v>0.66666666666666663</v>
       </c>
@@ -9947,7 +13640,7 @@
       <c r="I6" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="J6" s="27">
+      <c r="J6" s="26">
         <v>8.6999999999999993</v>
       </c>
       <c r="K6" s="18">
@@ -9959,7 +13652,7 @@
       <c r="N6" s="11">
         <v>0.6</v>
       </c>
-      <c r="P6" s="24">
+      <c r="P6" s="23">
         <f t="shared" si="0"/>
         <v>2.333333333333333</v>
       </c>
@@ -9972,7 +13665,7 @@
       <c r="B7" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="C7" s="26">
+      <c r="C7" s="25">
         <f>1/2*12/12</f>
         <v>0.5</v>
       </c>
@@ -9991,7 +13684,7 @@
       <c r="I7" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="J7" s="27">
+      <c r="J7" s="26">
         <v>2.2000000000000002</v>
       </c>
       <c r="K7" s="18">
@@ -10003,7 +13696,7 @@
       <c r="N7" s="11">
         <v>0.6</v>
       </c>
-      <c r="P7" s="24">
+      <c r="P7" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
@@ -10047,7 +13740,7 @@
       <c r="N8" s="12">
         <v>0.6</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="23">
         <f t="shared" si="0"/>
         <v>1.6666666666666665</v>
       </c>
@@ -10091,7 +13784,7 @@
       <c r="N9" s="12">
         <v>0.6</v>
       </c>
-      <c r="P9" s="24">
+      <c r="P9" s="23">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -10132,11 +13825,11 @@
         <f>H5&amp;B13</f>
         <v>两端顺子听牌的期望{ev}:</v>
       </c>
-      <c r="E13" s="23" t="str">
+      <c r="E13" s="32" t="str">
         <f>H6&amp;"或"&amp;H8&amp;B13</f>
         <v>内听顺子或两对的期望{ev}:</v>
       </c>
-      <c r="F13" s="23"/>
+      <c r="F13" s="32"/>
       <c r="G13" s="12" t="str">
         <f>H10&amp;B13</f>
         <v>两张单的期望{ev}:</v>
@@ -10184,27 +13877,27 @@
         <v>298</v>
       </c>
       <c r="C15" s="20">
-        <f>$C$1*F4+(1-F4)*($C$1*1-$K$4*C4)</f>
+        <f t="shared" ref="C15:C20" si="2">$C$1*F4+(1-F4)*($C$1*1-$K$4*C4)</f>
         <v>-0.23000000000000009</v>
       </c>
       <c r="D15" s="20">
-        <f t="shared" ref="D15:D20" si="2">$C$1*$F4+(1-$F4)*($C$1*1-$K$5*$C4)</f>
+        <f t="shared" ref="D15:D20" si="3">$C$1*$F4+(1-$F4)*($C$1*1-$K$5*$C4)</f>
         <v>-0.42200000000000037</v>
       </c>
       <c r="F15" s="20">
-        <f t="shared" ref="F15:G20" si="3">$C$1*$F4+(1-$F4)*($C$1*1-$K$6*$C4)</f>
+        <f t="shared" ref="F15:F20" si="4">$C$1*$F4+(1-$F4)*($C$1*1-$K$6*$C4)</f>
         <v>-2.1500000000000004</v>
       </c>
       <c r="G15" s="20">
-        <f t="shared" ref="G15:H20" si="4">$C$1*$F4+(1-$F4)*($C$1*1-$K$10*$C4)</f>
+        <f t="shared" ref="G15:G20" si="5">$C$1*$F4+(1-$F4)*($C$1*1-$K$10*$C4)</f>
         <v>-1.0100000000000005</v>
       </c>
       <c r="H15" s="20">
-        <f t="shared" ref="H15:I20" si="5">$C$1*$F4+(1-$F4)*($C$1*1-$K$9*$C4)</f>
+        <f t="shared" ref="H15:H20" si="6">$C$1*$F4+(1-$F4)*($C$1*1-$K$9*$C4)</f>
         <v>-5.6780000000000008</v>
       </c>
       <c r="I15" s="20">
-        <f t="shared" ref="I15:I20" si="6">$C$1*$F4+(1-$F4)*($C$1*1-$K$7*$C4)</f>
+        <f t="shared" ref="I15:I20" si="7">$C$1*$F4+(1-$F4)*($C$1*1-$K$7*$C4)</f>
         <v>-12.638000000000003</v>
       </c>
     </row>
@@ -10213,27 +13906,27 @@
         <v>298</v>
       </c>
       <c r="C16" s="20">
-        <f>$C$1*F5+(1-F5)*($C$1*1-$K$4*C5)</f>
+        <f t="shared" si="2"/>
         <v>-0.22999999999999998</v>
       </c>
       <c r="D16" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-0.42200000000000004</v>
       </c>
       <c r="F16" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2.15</v>
       </c>
       <c r="G16" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-1.0100000000000002</v>
       </c>
       <c r="H16" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.6780000000000008</v>
       </c>
       <c r="I16" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-12.638</v>
       </c>
     </row>
@@ -10241,29 +13934,29 @@
       <c r="B17" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C17" s="25">
-        <f>$C$1*F6+(1-F6)*($C$1*1-$K$4*C6)</f>
+      <c r="C17" s="24">
+        <f t="shared" si="2"/>
         <v>-0.36666666666666647</v>
       </c>
-      <c r="D17" s="25">
-        <f t="shared" si="2"/>
+      <c r="D17" s="24">
+        <f t="shared" si="3"/>
         <v>-0.58000000000000007</v>
       </c>
       <c r="E17" s="11"/>
-      <c r="F17" s="25">
-        <f t="shared" si="3"/>
+      <c r="F17" s="24">
+        <f t="shared" si="4"/>
         <v>-2.5</v>
       </c>
-      <c r="G17" s="25">
-        <f t="shared" si="4"/>
+      <c r="G17" s="24">
+        <f t="shared" si="5"/>
         <v>-1.2333333333333334</v>
       </c>
       <c r="H17" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-6.42</v>
       </c>
       <c r="I17" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-14.153333333333332</v>
       </c>
     </row>
@@ -10271,29 +13964,29 @@
       <c r="B18" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C18" s="25">
-        <f>$C$1*F7+(1-F7)*($C$1*1-$K$4*C7)</f>
+      <c r="C18" s="24">
+        <f t="shared" si="2"/>
         <v>-0.12749999999999989</v>
       </c>
-      <c r="D18" s="25">
-        <f t="shared" si="2"/>
+      <c r="D18" s="24">
+        <f t="shared" si="3"/>
         <v>-0.30350000000000016</v>
       </c>
       <c r="E18" s="11"/>
-      <c r="F18" s="25">
-        <f t="shared" si="3"/>
+      <c r="F18" s="24">
+        <f t="shared" si="4"/>
         <v>-1.8875000000000004</v>
       </c>
-      <c r="G18" s="25">
-        <f t="shared" si="4"/>
+      <c r="G18" s="24">
+        <f t="shared" si="5"/>
         <v>-0.84250000000000025</v>
       </c>
       <c r="H18" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-5.1215000000000011</v>
       </c>
       <c r="I18" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-11.501500000000002</v>
       </c>
     </row>
@@ -10302,27 +13995,27 @@
         <v>298</v>
       </c>
       <c r="C19" s="20">
-        <f>$C$1*F8+(1-F8)*($C$1*1-$K$4*C8)</f>
+        <f t="shared" si="2"/>
         <v>0.11166666666666678</v>
       </c>
       <c r="D19" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>-2.7000000000000079E-2</v>
       </c>
       <c r="F19" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.2749999999999999</v>
       </c>
       <c r="G19" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.45166666666666677</v>
       </c>
       <c r="H19" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.823</v>
       </c>
       <c r="I19" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.8496666666666659</v>
       </c>
     </row>
@@ -10331,32 +14024,32 @@
         <v>298</v>
       </c>
       <c r="C20" s="20">
-        <f>$C$1*F9+(1-F9)*($C$1*1-$K$4*C9)</f>
+        <f t="shared" si="2"/>
         <v>0.18000000000000008</v>
       </c>
       <c r="D20" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.1999999999999963E-2</v>
       </c>
       <c r="F20" s="20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-1.1000000000000001</v>
       </c>
       <c r="G20" s="20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-0.34</v>
       </c>
       <c r="H20" s="20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>-3.4520000000000004</v>
       </c>
       <c r="I20" s="20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>-8.0920000000000005</v>
       </c>
     </row>
     <row r="21" spans="1:13">
-      <c r="J21" s="24"/>
+      <c r="J21" s="23"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="12" t="s">
@@ -10399,39 +14092,39 @@
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+($C$1+2*$C3)*$Q$5)*1*$M3-$K$4*$C3)</f>
         <v>0.78000000000000014</v>
       </c>
-      <c r="C24" s="28">
+      <c r="C24" s="27">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+($C$1+2*$C3)*$Q$5)*1*$N3-$K$4*$C3)</f>
         <v>0.6050000000000002</v>
       </c>
       <c r="D24" s="20">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$5*$C3)</f>
+        <f t="shared" ref="D24:D30" si="8">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$5*$C3)</f>
         <v>0.752</v>
       </c>
-      <c r="E24" s="28">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$5*$C3)</f>
+      <c r="E24" s="27">
+        <f t="shared" ref="E24:E30" si="9">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$5*$C3)</f>
         <v>0.55200000000000005</v>
       </c>
       <c r="F24" s="20">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$6*$C3)</f>
+        <f t="shared" ref="F24:F30" si="10">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$6*$C3)</f>
         <v>-0.3999999999999998</v>
       </c>
-      <c r="G24" s="28">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$6*$C3)</f>
+      <c r="G24" s="27">
+        <f t="shared" ref="G24:G30" si="11">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$6*$C3)</f>
         <v>-0.59999999999999953</v>
       </c>
       <c r="H24" s="20">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$10*$C3)</f>
+        <f t="shared" ref="H24:H30" si="12">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$10*$C3)</f>
         <v>0.3600000000000001</v>
       </c>
-      <c r="I24" s="28">
-        <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$10*$C3)</f>
+      <c r="I24" s="27">
+        <f t="shared" ref="I24:I30" si="13">$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$10*$C3)</f>
         <v>0.16000000000000014</v>
       </c>
       <c r="J24" s="20">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$9*$C3)</f>
         <v>-2.7519999999999998</v>
       </c>
-      <c r="K24" s="28">
+      <c r="K24" s="27">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$9*$C3)</f>
         <v>-2.9519999999999995</v>
       </c>
@@ -10439,310 +14132,310 @@
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$M3-$K$7*$C3)</f>
         <v>-7.3919999999999977</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="27">
         <f>$C$1*$F3+(1-$F3)*(($C$1+2*$C3+$C$1+2*$C3)*1*$N3-$K$7*$C3)</f>
         <v>-7.5919999999999987</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="B25" s="20">
-        <f t="shared" ref="B25:B30" si="7">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+($C$1+2*$C4)*$Q$5)*1*$M4-$K$4*$C4)</f>
+        <f t="shared" ref="B25:B30" si="14">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+($C$1+2*$C4)*$Q$5)*1*$M4-$K$4*$C4)</f>
         <v>0.41499999999999998</v>
       </c>
-      <c r="C25" s="28">
-        <f t="shared" ref="C25:C30" si="8">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+($C$1+2*$C4)*$Q$5)*1*$N4-$K$4*$C4)</f>
+      <c r="C25" s="27">
+        <f t="shared" ref="C25:C30" si="15">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+($C$1+2*$C4)*$Q$5)*1*$N4-$K$4*$C4)</f>
         <v>0.41499999999999998</v>
       </c>
       <c r="D25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$5*$C4)</f>
+        <f t="shared" si="8"/>
         <v>0.35799999999999971</v>
       </c>
-      <c r="E25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$5*$C4)</f>
+      <c r="E25" s="27">
+        <f t="shared" si="9"/>
         <v>0.35799999999999971</v>
       </c>
       <c r="F25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$6*$C4)</f>
+        <f t="shared" si="10"/>
         <v>-1.3700000000000003</v>
       </c>
-      <c r="G25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$6*$C4)</f>
+      <c r="G25" s="27">
+        <f t="shared" si="11"/>
         <v>-1.3700000000000003</v>
       </c>
       <c r="H25" s="20">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$10*$C4)</f>
+        <f t="shared" si="12"/>
         <v>-0.23000000000000032</v>
       </c>
-      <c r="I25" s="28">
-        <f>$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$10*$C4)</f>
+      <c r="I25" s="27">
+        <f t="shared" si="13"/>
         <v>-0.23000000000000032</v>
       </c>
       <c r="J25" s="20">
-        <f t="shared" ref="J25:L30" si="9">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$9*$C4)</f>
+        <f t="shared" ref="J25:J30" si="16">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$9*$C4)</f>
         <v>-4.8980000000000015</v>
       </c>
-      <c r="K25" s="28">
-        <f t="shared" ref="K25:M30" si="10">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$9*$C4)</f>
+      <c r="K25" s="27">
+        <f t="shared" ref="K25:K30" si="17">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$9*$C4)</f>
         <v>-4.8980000000000015</v>
       </c>
       <c r="L25" s="20">
-        <f t="shared" ref="L25:L30" si="11">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$7*$C4)</f>
+        <f t="shared" ref="L25:L30" si="18">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$M4-$K$7*$C4)</f>
         <v>-11.858000000000002</v>
       </c>
-      <c r="M25" s="28">
-        <f t="shared" ref="M25:M30" si="12">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$7*$C4)</f>
+      <c r="M25" s="27">
+        <f t="shared" ref="M25:M30" si="19">$C$1*$F4+(1-$F4)*(($C$1+2*$C4+$C$1+2*$C4)*1*$N4-$K$7*$C4)</f>
         <v>-11.858000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="B26" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0.24500000000000005</v>
       </c>
-      <c r="C26" s="28">
+      <c r="C26" s="27">
+        <f t="shared" si="15"/>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D26" s="20">
         <f t="shared" si="8"/>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="D26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$M5-$K$5*$C5)</f>
         <v>0.17799999999999988</v>
       </c>
-      <c r="E26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$N5-$K$5*$C5)</f>
+      <c r="E26" s="27">
+        <f t="shared" si="9"/>
         <v>0.37799999999999989</v>
       </c>
       <c r="F26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$M5-$K$6*$C5)</f>
+        <f t="shared" si="10"/>
         <v>-1.5499999999999998</v>
       </c>
-      <c r="G26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$N5-$K$6*$C5)</f>
+      <c r="G26" s="27">
+        <f t="shared" si="11"/>
         <v>-1.35</v>
       </c>
       <c r="H26" s="20">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$M5-$K$10*$C5)</f>
+        <f t="shared" si="12"/>
         <v>-0.41000000000000025</v>
       </c>
-      <c r="I26" s="28">
-        <f>$C$1*$F5+(1-$F5)*(($C$1+2*$C5+$C$1+2*$C5)*1*$N5-$K$10*$C5)</f>
+      <c r="I26" s="27">
+        <f t="shared" si="13"/>
         <v>-0.21000000000000019</v>
       </c>
       <c r="J26" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-5.0780000000000012</v>
       </c>
-      <c r="K26" s="28">
-        <f t="shared" si="10"/>
+      <c r="K26" s="27">
+        <f t="shared" si="17"/>
         <v>-4.878000000000001</v>
       </c>
       <c r="L26" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-12.038</v>
       </c>
-      <c r="M26" s="28">
-        <f t="shared" si="12"/>
+      <c r="M26" s="27">
+        <f t="shared" si="19"/>
         <v>-11.838000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" s="11"/>
       <c r="B27" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-4.9999999999999822E-2</v>
       </c>
-      <c r="C27" s="28">
+      <c r="C27" s="27">
+        <f t="shared" si="15"/>
+        <v>0.35833333333333339</v>
+      </c>
+      <c r="D27" s="20">
         <f t="shared" si="8"/>
-        <v>0.35833333333333339</v>
-      </c>
-      <c r="D27" s="20">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$M6-$K$5*$C6)</f>
         <v>-0.14666666666666683</v>
       </c>
-      <c r="E27" s="28">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$N6-$K$5*$C6)</f>
+      <c r="E27" s="27">
+        <f t="shared" si="9"/>
         <v>0.31999999999999962</v>
       </c>
       <c r="F27" s="20">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$M6-$K$6*$C6)</f>
+        <f t="shared" si="10"/>
         <v>-2.0666666666666669</v>
       </c>
-      <c r="G27" s="28">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$N6-$K$6*$C6)</f>
+      <c r="G27" s="27">
+        <f t="shared" si="11"/>
         <v>-1.6000000000000005</v>
       </c>
       <c r="H27" s="20">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$M6-$K$10*$C6)</f>
+        <f t="shared" si="12"/>
         <v>-0.80000000000000027</v>
       </c>
-      <c r="I27" s="28">
-        <f>$C$1*$F6+(1-$F6)*(($C$1+2*$C6+$C$1+2*$C6)*1*$N6-$K$10*$C6)</f>
+      <c r="I27" s="27">
+        <f t="shared" si="13"/>
         <v>-0.3333333333333337</v>
       </c>
       <c r="J27" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-5.9866666666666664</v>
       </c>
-      <c r="K27" s="28">
-        <f t="shared" si="10"/>
+      <c r="K27" s="27">
+        <f t="shared" si="17"/>
         <v>-5.5200000000000005</v>
       </c>
       <c r="L27" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-13.719999999999999</v>
       </c>
-      <c r="M27" s="28">
-        <f t="shared" si="12"/>
+      <c r="M27" s="27">
+        <f t="shared" si="19"/>
         <v>-13.253333333333332</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="11"/>
       <c r="B28" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-9.9999999999999922E-2</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="27">
+        <f t="shared" si="15"/>
+        <v>0.47750000000000015</v>
+      </c>
+      <c r="D28" s="20">
         <f t="shared" si="8"/>
-        <v>0.47750000000000015</v>
-      </c>
-      <c r="D28" s="20">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$M7-$K$5*$C7)</f>
         <v>-0.19350000000000017</v>
       </c>
-      <c r="E28" s="28">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$N7-$K$5*$C7)</f>
+      <c r="E28" s="27">
+        <f t="shared" si="9"/>
         <v>0.46649999999999991</v>
       </c>
       <c r="F28" s="20">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$M7-$K$6*$C7)</f>
+        <f t="shared" si="10"/>
         <v>-1.7775000000000001</v>
       </c>
-      <c r="G28" s="28">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$N7-$K$6*$C7)</f>
+      <c r="G28" s="27">
+        <f t="shared" si="11"/>
         <v>-1.1175000000000002</v>
       </c>
       <c r="H28" s="20">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$M7-$K$10*$C7)</f>
+        <f t="shared" si="12"/>
         <v>-0.73250000000000037</v>
       </c>
-      <c r="I28" s="28">
-        <f>$C$1*$F7+(1-$F7)*(($C$1+2*$C7+$C$1+2*$C7)*1*$N7-$K$10*$C7)</f>
+      <c r="I28" s="27">
+        <f t="shared" si="13"/>
         <v>-7.2500000000000175E-2</v>
       </c>
       <c r="J28" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-5.0115000000000007</v>
       </c>
-      <c r="K28" s="28">
-        <f t="shared" si="10"/>
+      <c r="K28" s="27">
+        <f t="shared" si="17"/>
         <v>-4.3515000000000006</v>
       </c>
       <c r="L28" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-11.391500000000002</v>
       </c>
-      <c r="M28" s="28">
-        <f t="shared" si="12"/>
+      <c r="M28" s="27">
+        <f t="shared" si="19"/>
         <v>-10.731500000000002</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="B29" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-0.15916666666666657</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="27">
+        <f t="shared" si="15"/>
+        <v>0.59916666666666663</v>
+      </c>
+      <c r="D29" s="20">
         <f t="shared" si="8"/>
-        <v>0.59916666666666663</v>
-      </c>
-      <c r="D29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$M8-$K$5*$C8)</f>
         <v>-0.24366666666666681</v>
       </c>
-      <c r="E29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$N8-$K$5*$C8)</f>
+      <c r="E29" s="27">
+        <f t="shared" si="9"/>
         <v>0.62299999999999978</v>
       </c>
       <c r="F29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$M8-$K$6*$C8)</f>
+        <f t="shared" si="10"/>
         <v>-1.4916666666666667</v>
       </c>
-      <c r="G29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$N8-$K$6*$C8)</f>
+      <c r="G29" s="27">
+        <f t="shared" si="11"/>
         <v>-0.62500000000000022</v>
       </c>
       <c r="H29" s="20">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$M8-$K$10*$C8)</f>
+        <f t="shared" si="12"/>
         <v>-0.66833333333333356</v>
       </c>
-      <c r="I29" s="28">
-        <f>$C$1*$F8+(1-$F8)*(($C$1+2*$C8+$C$1+2*$C8)*1*$N8-$K$10*$C8)</f>
+      <c r="I29" s="27">
+        <f t="shared" si="13"/>
         <v>0.19833333333333311</v>
       </c>
       <c r="J29" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-4.0396666666666672</v>
       </c>
-      <c r="K29" s="28">
-        <f t="shared" si="10"/>
+      <c r="K29" s="27">
+        <f t="shared" si="17"/>
         <v>-3.173</v>
       </c>
       <c r="L29" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-9.0663333333333345</v>
       </c>
-      <c r="M29" s="28">
-        <f t="shared" si="12"/>
+      <c r="M29" s="27">
+        <f t="shared" si="19"/>
         <v>-8.1996666666666673</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="B30" s="20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>-0.41</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="27">
+        <f t="shared" si="15"/>
+        <v>0.64000000000000012</v>
+      </c>
+      <c r="D30" s="20">
         <f t="shared" si="8"/>
-        <v>0.64000000000000012</v>
-      </c>
-      <c r="D30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$M9-$K$5*$C9)</f>
         <v>-0.50800000000000001</v>
       </c>
-      <c r="E30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$N9-$K$5*$C9)</f>
+      <c r="E30" s="27">
+        <f t="shared" si="9"/>
         <v>0.69199999999999984</v>
       </c>
       <c r="F30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$M9-$K$6*$C9)</f>
+        <f t="shared" si="10"/>
         <v>-1.6600000000000004</v>
       </c>
-      <c r="G30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$N9-$K$6*$C9)</f>
+      <c r="G30" s="27">
+        <f t="shared" si="11"/>
         <v>-0.46000000000000013</v>
       </c>
       <c r="H30" s="20">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$M9-$K$10*$C9)</f>
+        <f t="shared" si="12"/>
         <v>-0.90000000000000013</v>
       </c>
-      <c r="I30" s="28">
-        <f>$C$1*$F9+(1-$F9)*(($C$1+2*$C9+$C$1+2*$C9)*1*$N9-$K$10*$C9)</f>
+      <c r="I30" s="27">
+        <f t="shared" si="13"/>
         <v>0.29999999999999982</v>
       </c>
       <c r="J30" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="16"/>
         <v>-4.0120000000000005</v>
       </c>
-      <c r="K30" s="28">
-        <f t="shared" si="10"/>
+      <c r="K30" s="27">
+        <f t="shared" si="17"/>
         <v>-2.8120000000000003</v>
       </c>
       <c r="L30" s="20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>-8.652000000000001</v>
       </c>
-      <c r="M30" s="28">
-        <f t="shared" si="12"/>
+      <c r="M30" s="27">
+        <f t="shared" si="19"/>
         <v>-7.4520000000000008</v>
       </c>
     </row>
@@ -10755,7 +14448,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -10861,7 +14554,7 @@
       <c r="C7" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="25">
         <f>2/3*12/12</f>
         <v>0.66666666666666663</v>
       </c>
@@ -10880,7 +14573,7 @@
       <c r="C8" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="26">
+      <c r="D8" s="25">
         <f>1/2*12/12</f>
         <v>0.5</v>
       </c>
@@ -10933,43 +14626,43 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="B12" s="30">
+      <c r="B12" s="29">
         <f>$D$2*G4+(1-G4)*D$4</f>
         <v>1.0699999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="B13" s="30">
+      <c r="B13" s="29">
         <f t="shared" ref="B13:B18" si="0">$D$2*G5+(1-G5)*D$4</f>
         <v>1.25</v>
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="B14" s="30">
+      <c r="B14" s="29">
         <f t="shared" si="0"/>
         <v>1.4</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="B15" s="30">
+      <c r="B15" s="29">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="B16" s="30">
+      <c r="B16" s="29">
         <f t="shared" si="0"/>
         <v>1.55</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="30">
+      <c r="B17" s="29">
         <f t="shared" si="0"/>
         <v>1.65</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="30">
+      <c r="B18" s="29">
         <f t="shared" si="0"/>
         <v>1.8</v>
       </c>
